--- a/sorting_results.xlsx
+++ b/sorting_results.xlsx
@@ -475,16 +475,16 @@
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>499500</v>
+        <v>0.07758903503417969</v>
       </c>
       <c r="D2" t="n">
-        <v>499500</v>
+        <v>0.06564021110534668</v>
       </c>
       <c r="E2" t="n">
-        <v>499500</v>
+        <v>0.05384612083435059</v>
       </c>
       <c r="F2" t="n">
-        <v>499500</v>
+        <v>0.0535280704498291</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>1500</v>
       </c>
       <c r="C3" t="n">
-        <v>1124250</v>
+        <v>0.108018159866333</v>
       </c>
       <c r="D3" t="n">
-        <v>1124250</v>
+        <v>0.09969210624694824</v>
       </c>
       <c r="E3" t="n">
-        <v>1124250</v>
+        <v>0.0889589786529541</v>
       </c>
       <c r="F3" t="n">
-        <v>1124250</v>
+        <v>0.09038686752319336</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>2000</v>
       </c>
       <c r="C4" t="n">
-        <v>1999000</v>
+        <v>0.1566650867462158</v>
       </c>
       <c r="D4" t="n">
-        <v>1999000</v>
+        <v>0.1571741104125977</v>
       </c>
       <c r="E4" t="n">
-        <v>1999000</v>
+        <v>0.1570560932159424</v>
       </c>
       <c r="F4" t="n">
-        <v>1999000</v>
+        <v>0.1612391471862793</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>2500</v>
       </c>
       <c r="C5" t="n">
-        <v>3123750</v>
+        <v>0.2446756362915039</v>
       </c>
       <c r="D5" t="n">
-        <v>3123750</v>
+        <v>0.2440838813781738</v>
       </c>
       <c r="E5" t="n">
-        <v>3123750</v>
+        <v>0.2452232837677002</v>
       </c>
       <c r="F5" t="n">
-        <v>3123750</v>
+        <v>0.2506270408630371</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>3000</v>
       </c>
       <c r="C6" t="n">
-        <v>4498500</v>
+        <v>0.3516407012939453</v>
       </c>
       <c r="D6" t="n">
-        <v>4498500</v>
+        <v>0.3513181209564209</v>
       </c>
       <c r="E6" t="n">
-        <v>4498500</v>
+        <v>0.3522698879241943</v>
       </c>
       <c r="F6" t="n">
-        <v>4498500</v>
+        <v>0.3606669902801514</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +585,16 @@
         <v>3500</v>
       </c>
       <c r="C7" t="n">
-        <v>6123250</v>
+        <v>0.4796998500823975</v>
       </c>
       <c r="D7" t="n">
-        <v>6123250</v>
+        <v>0.4782698154449463</v>
       </c>
       <c r="E7" t="n">
-        <v>6123250</v>
+        <v>0.4791200160980225</v>
       </c>
       <c r="F7" t="n">
-        <v>6123250</v>
+        <v>0.4915771484375</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +607,16 @@
         <v>4000</v>
       </c>
       <c r="C8" t="n">
-        <v>7998000</v>
+        <v>0.6238980293273926</v>
       </c>
       <c r="D8" t="n">
-        <v>7998000</v>
+        <v>0.6256561279296875</v>
       </c>
       <c r="E8" t="n">
-        <v>7998000</v>
+        <v>0.6442680358886719</v>
       </c>
       <c r="F8" t="n">
-        <v>7998000</v>
+        <v>0.6450021266937256</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>4500</v>
       </c>
       <c r="C9" t="n">
-        <v>10122750</v>
+        <v>0.8269660472869873</v>
       </c>
       <c r="D9" t="n">
-        <v>10122750</v>
+        <v>0.8600859642028809</v>
       </c>
       <c r="E9" t="n">
-        <v>10122750</v>
+        <v>0.7951202392578125</v>
       </c>
       <c r="F9" t="n">
-        <v>10122750</v>
+        <v>0.8208587169647217</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>5000</v>
       </c>
       <c r="C10" t="n">
-        <v>12497500</v>
+        <v>1.054775953292847</v>
       </c>
       <c r="D10" t="n">
-        <v>12497500</v>
+        <v>1.002745151519775</v>
       </c>
       <c r="E10" t="n">
-        <v>12497500</v>
+        <v>0.981809139251709</v>
       </c>
       <c r="F10" t="n">
-        <v>12497500</v>
+        <v>1.053350925445557</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>5500</v>
       </c>
       <c r="C11" t="n">
-        <v>15122250</v>
+        <v>1.268526077270508</v>
       </c>
       <c r="D11" t="n">
-        <v>15122250</v>
+        <v>1.188674688339233</v>
       </c>
       <c r="E11" t="n">
-        <v>15122250</v>
+        <v>1.190330982208252</v>
       </c>
       <c r="F11" t="n">
-        <v>15122250</v>
+        <v>1.222375154495239</v>
       </c>
     </row>
     <row r="12">
@@ -695,16 +695,16 @@
         <v>6000</v>
       </c>
       <c r="C12" t="n">
-        <v>17997000</v>
+        <v>1.476966857910156</v>
       </c>
       <c r="D12" t="n">
-        <v>17997000</v>
+        <v>2.137216091156006</v>
       </c>
       <c r="E12" t="n">
-        <v>17997000</v>
+        <v>1.461122035980225</v>
       </c>
       <c r="F12" t="n">
-        <v>17997000</v>
+        <v>1.472672700881958</v>
       </c>
     </row>
     <row r="13">
@@ -717,16 +717,16 @@
         <v>6500</v>
       </c>
       <c r="C13" t="n">
-        <v>21121750</v>
+        <v>1.829779148101807</v>
       </c>
       <c r="D13" t="n">
-        <v>21121750</v>
+        <v>1.655170202255249</v>
       </c>
       <c r="E13" t="n">
-        <v>21121750</v>
+        <v>1.661042213439941</v>
       </c>
       <c r="F13" t="n">
-        <v>21121750</v>
+        <v>1.696310043334961</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         <v>7000</v>
       </c>
       <c r="C14" t="n">
-        <v>24496500</v>
+        <v>2.104610204696655</v>
       </c>
       <c r="D14" t="n">
-        <v>24496500</v>
+        <v>1.943035125732422</v>
       </c>
       <c r="E14" t="n">
-        <v>24496500</v>
+        <v>1.944490909576416</v>
       </c>
       <c r="F14" t="n">
-        <v>24496500</v>
+        <v>2.019044876098633</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>7500</v>
       </c>
       <c r="C15" t="n">
-        <v>28121250</v>
+        <v>2.241614818572998</v>
       </c>
       <c r="D15" t="n">
-        <v>28121250</v>
+        <v>2.210121870040894</v>
       </c>
       <c r="E15" t="n">
-        <v>28121250</v>
+        <v>3.649381875991821</v>
       </c>
       <c r="F15" t="n">
-        <v>28121250</v>
+        <v>2.307039022445679</v>
       </c>
     </row>
     <row r="16">
@@ -783,16 +783,16 @@
         <v>8000</v>
       </c>
       <c r="C16" t="n">
-        <v>31996000</v>
+        <v>2.550091981887817</v>
       </c>
       <c r="D16" t="n">
-        <v>31996000</v>
+        <v>2.581423759460449</v>
       </c>
       <c r="E16" t="n">
-        <v>31996000</v>
+        <v>2.510962009429932</v>
       </c>
       <c r="F16" t="n">
-        <v>31996000</v>
+        <v>2.565546989440918</v>
       </c>
     </row>
     <row r="17">
@@ -805,16 +805,16 @@
         <v>8500</v>
       </c>
       <c r="C17" t="n">
-        <v>36120750</v>
+        <v>2.914736270904541</v>
       </c>
       <c r="D17" t="n">
-        <v>36120750</v>
+        <v>2.85447096824646</v>
       </c>
       <c r="E17" t="n">
-        <v>36120750</v>
+        <v>2.876950025558472</v>
       </c>
       <c r="F17" t="n">
-        <v>36120750</v>
+        <v>2.944251775741577</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>9000</v>
       </c>
       <c r="C18" t="n">
-        <v>40495500</v>
+        <v>3.226206064224243</v>
       </c>
       <c r="D18" t="n">
-        <v>40495500</v>
+        <v>3.173779010772705</v>
       </c>
       <c r="E18" t="n">
-        <v>40495500</v>
+        <v>3.192038297653198</v>
       </c>
       <c r="F18" t="n">
-        <v>40495500</v>
+        <v>3.246825218200684</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         <v>9500</v>
       </c>
       <c r="C19" t="n">
-        <v>45120250</v>
+        <v>3.531393051147461</v>
       </c>
       <c r="D19" t="n">
-        <v>45120250</v>
+        <v>3.531800985336304</v>
       </c>
       <c r="E19" t="n">
-        <v>45120250</v>
+        <v>3.537649154663086</v>
       </c>
       <c r="F19" t="n">
-        <v>45120250</v>
+        <v>3.687109231948853</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         <v>10000</v>
       </c>
       <c r="C20" t="n">
-        <v>49995000</v>
+        <v>3.917341947555542</v>
       </c>
       <c r="D20" t="n">
-        <v>49995000</v>
+        <v>3.92037296295166</v>
       </c>
       <c r="E20" t="n">
-        <v>49995000</v>
+        <v>3.926445007324219</v>
       </c>
       <c r="F20" t="n">
-        <v>49995000</v>
+        <v>4.14205527305603</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         <v>1000</v>
       </c>
       <c r="C21" t="n">
-        <v>999</v>
+        <v>0.0007028579711914062</v>
       </c>
       <c r="D21" t="n">
-        <v>58709</v>
+        <v>0.009489297866821289</v>
       </c>
       <c r="E21" t="n">
-        <v>254864</v>
+        <v>0.04053688049316406</v>
       </c>
       <c r="F21" t="n">
-        <v>500499</v>
+        <v>0.07609701156616211</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>1500</v>
       </c>
       <c r="C22" t="n">
-        <v>1499</v>
+        <v>0.0003509521484375</v>
       </c>
       <c r="D22" t="n">
-        <v>130147</v>
+        <v>0.0302581787109375</v>
       </c>
       <c r="E22" t="n">
-        <v>549494</v>
+        <v>0.1701281070709229</v>
       </c>
       <c r="F22" t="n">
-        <v>1125749</v>
+        <v>0.2545762062072754</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +937,16 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>1999</v>
+        <v>0.0003750324249267578</v>
       </c>
       <c r="D23" t="n">
-        <v>229727</v>
+        <v>0.0368950366973877</v>
       </c>
       <c r="E23" t="n">
-        <v>978029</v>
+        <v>0.1857719421386719</v>
       </c>
       <c r="F23" t="n">
-        <v>2000999</v>
+        <v>0.315680980682373</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +959,16 @@
         <v>2500</v>
       </c>
       <c r="C24" t="n">
-        <v>2499</v>
+        <v>0.0004441738128662109</v>
       </c>
       <c r="D24" t="n">
-        <v>364235</v>
+        <v>0.05153274536132812</v>
       </c>
       <c r="E24" t="n">
-        <v>1547918</v>
+        <v>0.1878669261932373</v>
       </c>
       <c r="F24" t="n">
-        <v>3126249</v>
+        <v>0.3603048324584961</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>3000</v>
       </c>
       <c r="C25" t="n">
-        <v>2999</v>
+        <v>0.0004308223724365234</v>
       </c>
       <c r="D25" t="n">
-        <v>498401</v>
+        <v>0.05697989463806152</v>
       </c>
       <c r="E25" t="n">
-        <v>2250371</v>
+        <v>0.2623171806335449</v>
       </c>
       <c r="F25" t="n">
-        <v>4501499</v>
+        <v>0.5198960304260254</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>3500</v>
       </c>
       <c r="C26" t="n">
-        <v>3499</v>
+        <v>0.0004811286926269531</v>
       </c>
       <c r="D26" t="n">
-        <v>759025</v>
+        <v>0.08952593803405762</v>
       </c>
       <c r="E26" t="n">
-        <v>3052752</v>
+        <v>0.3667490482330322</v>
       </c>
       <c r="F26" t="n">
-        <v>6126749</v>
+        <v>0.7094409465789795</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         <v>4000</v>
       </c>
       <c r="C27" t="n">
-        <v>3999</v>
+        <v>0.0005459785461425781</v>
       </c>
       <c r="D27" t="n">
-        <v>947991</v>
+        <v>0.1158950328826904</v>
       </c>
       <c r="E27" t="n">
-        <v>4021885</v>
+        <v>0.477208137512207</v>
       </c>
       <c r="F27" t="n">
-        <v>8001999</v>
+        <v>0.9283158779144287</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>4500</v>
       </c>
       <c r="C28" t="n">
-        <v>4499</v>
+        <v>0.0006191730499267578</v>
       </c>
       <c r="D28" t="n">
-        <v>1189177</v>
+        <v>0.1276929378509521</v>
       </c>
       <c r="E28" t="n">
-        <v>5050110</v>
+        <v>0.5928900241851807</v>
       </c>
       <c r="F28" t="n">
-        <v>10127249</v>
+        <v>1.17714786529541</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>5000</v>
       </c>
       <c r="C29" t="n">
-        <v>4999</v>
+        <v>0.0006871223449707031</v>
       </c>
       <c r="D29" t="n">
-        <v>1386779</v>
+        <v>0.1639258861541748</v>
       </c>
       <c r="E29" t="n">
-        <v>6217172</v>
+        <v>0.7493293285369873</v>
       </c>
       <c r="F29" t="n">
-        <v>12502499</v>
+        <v>1.455217361450195</v>
       </c>
     </row>
     <row r="30">
@@ -1091,16 +1091,16 @@
         <v>5500</v>
       </c>
       <c r="C30" t="n">
-        <v>5499</v>
+        <v>0.0007600784301757812</v>
       </c>
       <c r="D30" t="n">
-        <v>1866025</v>
+        <v>0.2085809707641602</v>
       </c>
       <c r="E30" t="n">
-        <v>7552683</v>
+        <v>0.8895180225372314</v>
       </c>
       <c r="F30" t="n">
-        <v>15127749</v>
+        <v>1.76591682434082</v>
       </c>
     </row>
     <row r="31">
@@ -1113,16 +1113,16 @@
         <v>6000</v>
       </c>
       <c r="C31" t="n">
-        <v>5999</v>
+        <v>0.0008258819580078125</v>
       </c>
       <c r="D31" t="n">
-        <v>2075545</v>
+        <v>0.2437171936035156</v>
       </c>
       <c r="E31" t="n">
-        <v>8953869</v>
+        <v>1.071758985519409</v>
       </c>
       <c r="F31" t="n">
-        <v>18002999</v>
+        <v>2.101008176803589</v>
       </c>
     </row>
     <row r="32">
@@ -1135,16 +1135,16 @@
         <v>6500</v>
       </c>
       <c r="C32" t="n">
-        <v>6499</v>
+        <v>0.0009448528289794922</v>
       </c>
       <c r="D32" t="n">
-        <v>2387883</v>
+        <v>0.2823596000671387</v>
       </c>
       <c r="E32" t="n">
-        <v>10620691</v>
+        <v>1.272028923034668</v>
       </c>
       <c r="F32" t="n">
-        <v>21128249</v>
+        <v>2.468135118484497</v>
       </c>
     </row>
     <row r="33">
@@ -1157,16 +1157,16 @@
         <v>7000</v>
       </c>
       <c r="C33" t="n">
-        <v>6999</v>
+        <v>0.001010894775390625</v>
       </c>
       <c r="D33" t="n">
-        <v>2914637</v>
+        <v>0.3136200904846191</v>
       </c>
       <c r="E33" t="n">
-        <v>12199782</v>
+        <v>1.45713996887207</v>
       </c>
       <c r="F33" t="n">
-        <v>24503499</v>
+        <v>2.917876005172729</v>
       </c>
     </row>
     <row r="34">
@@ -1179,16 +1179,16 @@
         <v>7500</v>
       </c>
       <c r="C34" t="n">
-        <v>7499</v>
+        <v>0.001031160354614258</v>
       </c>
       <c r="D34" t="n">
-        <v>3318445</v>
+        <v>0.3782410621643066</v>
       </c>
       <c r="E34" t="n">
-        <v>14040352</v>
+        <v>1.645681142807007</v>
       </c>
       <c r="F34" t="n">
-        <v>28128749</v>
+        <v>3.367813110351562</v>
       </c>
     </row>
     <row r="35">
@@ -1201,16 +1201,16 @@
         <v>8000</v>
       </c>
       <c r="C35" t="n">
-        <v>7999</v>
+        <v>0.001096963882446289</v>
       </c>
       <c r="D35" t="n">
-        <v>3582165</v>
+        <v>0.4514601230621338</v>
       </c>
       <c r="E35" t="n">
-        <v>15956466</v>
+        <v>2.691707134246826</v>
       </c>
       <c r="F35" t="n">
-        <v>32003999</v>
+        <v>3.819469690322876</v>
       </c>
     </row>
     <row r="36">
@@ -1223,16 +1223,16 @@
         <v>8500</v>
       </c>
       <c r="C36" t="n">
-        <v>8499</v>
+        <v>0.001175880432128906</v>
       </c>
       <c r="D36" t="n">
-        <v>4140231</v>
+        <v>0.5029308795928955</v>
       </c>
       <c r="E36" t="n">
-        <v>18251773</v>
+        <v>2.152639150619507</v>
       </c>
       <c r="F36" t="n">
-        <v>36129249</v>
+        <v>4.235471963882446</v>
       </c>
     </row>
     <row r="37">
@@ -1245,16 +1245,16 @@
         <v>9000</v>
       </c>
       <c r="C37" t="n">
-        <v>8999</v>
+        <v>0.001233816146850586</v>
       </c>
       <c r="D37" t="n">
-        <v>4939997</v>
+        <v>0.5599169731140137</v>
       </c>
       <c r="E37" t="n">
-        <v>20021332</v>
+        <v>2.369350910186768</v>
       </c>
       <c r="F37" t="n">
-        <v>40504499</v>
+        <v>4.756420135498047</v>
       </c>
     </row>
     <row r="38">
@@ -1267,16 +1267,16 @@
         <v>9500</v>
       </c>
       <c r="C38" t="n">
-        <v>9499</v>
+        <v>0.001306772232055664</v>
       </c>
       <c r="D38" t="n">
-        <v>5103007</v>
+        <v>0.6066298484802246</v>
       </c>
       <c r="E38" t="n">
-        <v>22560286</v>
+        <v>2.665809869766235</v>
       </c>
       <c r="F38" t="n">
-        <v>45129749</v>
+        <v>5.297202825546265</v>
       </c>
     </row>
     <row r="39">
@@ -1289,16 +1289,16 @@
         <v>10000</v>
       </c>
       <c r="C39" t="n">
-        <v>9999</v>
+        <v>0.00138401985168457</v>
       </c>
       <c r="D39" t="n">
-        <v>5860583</v>
+        <v>0.7001190185546875</v>
       </c>
       <c r="E39" t="n">
-        <v>24923827</v>
+        <v>3.083462953567505</v>
       </c>
       <c r="F39" t="n">
-        <v>50004999</v>
+        <v>5.857935905456543</v>
       </c>
     </row>
     <row r="40">
@@ -1311,16 +1311,16 @@
         <v>1000</v>
       </c>
       <c r="C40" t="n">
-        <v>999</v>
+        <v>7.700920104980469e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>494040</v>
+        <v>0.04302096366882324</v>
       </c>
       <c r="E40" t="n">
-        <v>498372</v>
+        <v>0.06525802612304688</v>
       </c>
       <c r="F40" t="n">
-        <v>499500</v>
+        <v>0.08394026756286621</v>
       </c>
     </row>
     <row r="41">
@@ -1333,16 +1333,16 @@
         <v>1500</v>
       </c>
       <c r="C41" t="n">
-        <v>1499</v>
+        <v>0.0001096725463867188</v>
       </c>
       <c r="D41" t="n">
-        <v>1119594</v>
+        <v>0.09662199020385742</v>
       </c>
       <c r="E41" t="n">
-        <v>1122975</v>
+        <v>0.1415841579437256</v>
       </c>
       <c r="F41" t="n">
-        <v>1124250</v>
+        <v>0.1925687789916992</v>
       </c>
     </row>
     <row r="42">
@@ -1355,16 +1355,16 @@
         <v>2000</v>
       </c>
       <c r="C42" t="n">
-        <v>1999</v>
+        <v>0.0001521110534667969</v>
       </c>
       <c r="D42" t="n">
-        <v>1995345</v>
+        <v>0.1727280616760254</v>
       </c>
       <c r="E42" t="n">
-        <v>1996372</v>
+        <v>0.2592892646789551</v>
       </c>
       <c r="F42" t="n">
-        <v>1999000</v>
+        <v>0.3528470993041992</v>
       </c>
     </row>
     <row r="43">
@@ -1377,16 +1377,16 @@
         <v>2500</v>
       </c>
       <c r="C43" t="n">
-        <v>2499</v>
+        <v>0.0001840591430664062</v>
       </c>
       <c r="D43" t="n">
-        <v>3122372</v>
+        <v>0.2787182331085205</v>
       </c>
       <c r="E43" t="n">
-        <v>3123315</v>
+        <v>0.4001839160919189</v>
       </c>
       <c r="F43" t="n">
-        <v>3123750</v>
+        <v>0.54345703125</v>
       </c>
     </row>
     <row r="44">
@@ -1399,16 +1399,16 @@
         <v>3000</v>
       </c>
       <c r="C44" t="n">
-        <v>2999</v>
+        <v>0.0002219676971435547</v>
       </c>
       <c r="D44" t="n">
-        <v>4458879</v>
+        <v>0.3835067749023438</v>
       </c>
       <c r="E44" t="n">
-        <v>4498004</v>
+        <v>0.5767722129821777</v>
       </c>
       <c r="F44" t="n">
-        <v>4498500</v>
+        <v>0.7850711345672607</v>
       </c>
     </row>
     <row r="45">
@@ -1421,16 +1421,16 @@
         <v>3500</v>
       </c>
       <c r="C45" t="n">
-        <v>3499</v>
+        <v>0.0002579689025878906</v>
       </c>
       <c r="D45" t="n">
-        <v>6106597</v>
+        <v>0.5289299488067627</v>
       </c>
       <c r="E45" t="n">
-        <v>6118594</v>
+        <v>0.7878069877624512</v>
       </c>
       <c r="F45" t="n">
-        <v>6123250</v>
+        <v>1.071583986282349</v>
       </c>
     </row>
     <row r="46">
@@ -1443,16 +1443,16 @@
         <v>4000</v>
       </c>
       <c r="C46" t="n">
-        <v>3999</v>
+        <v>0.0002970695495605469</v>
       </c>
       <c r="D46" t="n">
-        <v>7996230</v>
+        <v>0.6888947486877441</v>
       </c>
       <c r="E46" t="n">
-        <v>7982069</v>
+        <v>1.031584978103638</v>
       </c>
       <c r="F46" t="n">
-        <v>7998000</v>
+        <v>1.487957715988159</v>
       </c>
     </row>
     <row r="47">
@@ -1465,16 +1465,16 @@
         <v>4500</v>
       </c>
       <c r="C47" t="n">
-        <v>4499</v>
+        <v>0.0003571510314941406</v>
       </c>
       <c r="D47" t="n">
-        <v>10112454</v>
+        <v>0.9247450828552246</v>
       </c>
       <c r="E47" t="n">
-        <v>10120194</v>
+        <v>1.315871000289917</v>
       </c>
       <c r="F47" t="n">
-        <v>10122750</v>
+        <v>1.809325218200684</v>
       </c>
     </row>
     <row r="48">
@@ -1487,16 +1487,16 @@
         <v>5000</v>
       </c>
       <c r="C48" t="n">
-        <v>4999</v>
+        <v>0.0003707408905029297</v>
       </c>
       <c r="D48" t="n">
-        <v>12469059</v>
+        <v>1.090979099273682</v>
       </c>
       <c r="E48" t="n">
-        <v>12494497</v>
+        <v>1.598010778427124</v>
       </c>
       <c r="F48" t="n">
-        <v>12497500</v>
+        <v>2.20026707649231</v>
       </c>
     </row>
     <row r="49">
@@ -1509,16 +1509,16 @@
         <v>5500</v>
       </c>
       <c r="C49" t="n">
-        <v>5499</v>
+        <v>0.0004076957702636719</v>
       </c>
       <c r="D49" t="n">
-        <v>15120654</v>
+        <v>1.311413764953613</v>
       </c>
       <c r="E49" t="n">
-        <v>15119835</v>
+        <v>1.959822177886963</v>
       </c>
       <c r="F49" t="n">
-        <v>15122250</v>
+        <v>2.673385858535767</v>
       </c>
     </row>
     <row r="50">
@@ -1531,16 +1531,16 @@
         <v>6000</v>
       </c>
       <c r="C50" t="n">
-        <v>5999</v>
+        <v>0.0004441738128662109</v>
       </c>
       <c r="D50" t="n">
-        <v>17963330</v>
+        <v>1.559625148773193</v>
       </c>
       <c r="E50" t="n">
-        <v>17992629</v>
+        <v>2.328352212905884</v>
       </c>
       <c r="F50" t="n">
-        <v>17997000</v>
+        <v>3.169328927993774</v>
       </c>
     </row>
     <row r="51">
@@ -1553,16 +1553,16 @@
         <v>6500</v>
       </c>
       <c r="C51" t="n">
-        <v>6499</v>
+        <v>0.0004811286926269531</v>
       </c>
       <c r="D51" t="n">
-        <v>21116997</v>
+        <v>1.834142923355103</v>
       </c>
       <c r="E51" t="n">
-        <v>21099595</v>
+        <v>2.747397184371948</v>
       </c>
       <c r="F51" t="n">
-        <v>21121750</v>
+        <v>3.731585025787354</v>
       </c>
     </row>
     <row r="52">
@@ -1575,16 +1575,16 @@
         <v>7000</v>
       </c>
       <c r="C52" t="n">
-        <v>6999</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="D52" t="n">
-        <v>24491040</v>
+        <v>2.128390073776245</v>
       </c>
       <c r="E52" t="n">
-        <v>24489714</v>
+        <v>3.177832126617432</v>
       </c>
       <c r="F52" t="n">
-        <v>24496500</v>
+        <v>4.336004734039307</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         <v>7500</v>
       </c>
       <c r="C53" t="n">
-        <v>7499</v>
+        <v>0.0005559921264648438</v>
       </c>
       <c r="D53" t="n">
-        <v>28064634</v>
+        <v>2.432086944580078</v>
       </c>
       <c r="E53" t="n">
-        <v>28113624</v>
+        <v>3.638602018356323</v>
       </c>
       <c r="F53" t="n">
-        <v>28121250</v>
+        <v>4.973408699035645</v>
       </c>
     </row>
     <row r="54">
@@ -1619,16 +1619,16 @@
         <v>8000</v>
       </c>
       <c r="C54" t="n">
-        <v>7999</v>
+        <v>0.0005939006805419922</v>
       </c>
       <c r="D54" t="n">
-        <v>31976694</v>
+        <v>2.768380165100098</v>
       </c>
       <c r="E54" t="n">
-        <v>31989214</v>
+        <v>4.153082132339478</v>
       </c>
       <c r="F54" t="n">
-        <v>31996000</v>
+        <v>5.666578054428101</v>
       </c>
     </row>
     <row r="55">
@@ -1641,16 +1641,16 @@
         <v>8500</v>
       </c>
       <c r="C55" t="n">
-        <v>8499</v>
+        <v>0.0006330013275146484</v>
       </c>
       <c r="D55" t="n">
-        <v>36088365</v>
+        <v>3.192135810852051</v>
       </c>
       <c r="E55" t="n">
-        <v>36108504</v>
+        <v>4.697869062423706</v>
       </c>
       <c r="F55" t="n">
-        <v>36120750</v>
+        <v>6.380657196044922</v>
       </c>
     </row>
     <row r="56">
@@ -1663,16 +1663,16 @@
         <v>9000</v>
       </c>
       <c r="C56" t="n">
-        <v>8999</v>
+        <v>0.0006690025329589844</v>
       </c>
       <c r="D56" t="n">
-        <v>40433724</v>
+        <v>3.518014907836914</v>
       </c>
       <c r="E56" t="n">
-        <v>40495269</v>
+        <v>5.273826122283936</v>
       </c>
       <c r="F56" t="n">
-        <v>40495500</v>
+        <v>7.155104160308838</v>
       </c>
     </row>
     <row r="57">
@@ -1685,16 +1685,16 @@
         <v>9500</v>
       </c>
       <c r="C57" t="n">
-        <v>9499</v>
+        <v>0.0007081031799316406</v>
       </c>
       <c r="D57" t="n">
-        <v>45038440</v>
+        <v>3.940370321273804</v>
       </c>
       <c r="E57" t="n">
-        <v>45108774</v>
+        <v>5.866188049316406</v>
       </c>
       <c r="F57" t="n">
-        <v>45120250</v>
+        <v>7.978800058364868</v>
       </c>
     </row>
     <row r="58">
@@ -1707,16 +1707,16 @@
         <v>10000</v>
       </c>
       <c r="C58" t="n">
-        <v>9999</v>
+        <v>0.0007500648498535156</v>
       </c>
       <c r="D58" t="n">
-        <v>49948944</v>
+        <v>4.393776893615723</v>
       </c>
       <c r="E58" t="n">
-        <v>49994010</v>
+        <v>6.508473873138428</v>
       </c>
       <c r="F58" t="n">
-        <v>49995000</v>
+        <v>8.937330007553101</v>
       </c>
     </row>
     <row r="59">
@@ -1729,16 +1729,16 @@
         <v>1000</v>
       </c>
       <c r="C59" t="n">
-        <v>4932</v>
+        <v>0.0001990795135498047</v>
       </c>
       <c r="D59" t="n">
-        <v>7950</v>
+        <v>0.0002608299255371094</v>
       </c>
       <c r="E59" t="n">
-        <v>8708</v>
+        <v>0.00020599365234375</v>
       </c>
       <c r="F59" t="n">
-        <v>5044</v>
+        <v>0.0001966953277587891</v>
       </c>
     </row>
     <row r="60">
@@ -1751,16 +1751,16 @@
         <v>1500</v>
       </c>
       <c r="C60" t="n">
-        <v>7664</v>
+        <v>0.0003221035003662109</v>
       </c>
       <c r="D60" t="n">
-        <v>12714</v>
+        <v>0.0003728866577148438</v>
       </c>
       <c r="E60" t="n">
-        <v>13989</v>
+        <v>0.0003290176391601562</v>
       </c>
       <c r="F60" t="n">
-        <v>8288</v>
+        <v>0.0003173351287841797</v>
       </c>
     </row>
     <row r="61">
@@ -1773,16 +1773,16 @@
         <v>2000</v>
       </c>
       <c r="C61" t="n">
-        <v>10864</v>
+        <v>0.0004138946533203125</v>
       </c>
       <c r="D61" t="n">
-        <v>17988</v>
+        <v>0.0004930496215820312</v>
       </c>
       <c r="E61" t="n">
-        <v>19434</v>
+        <v>0.0004961490631103516</v>
       </c>
       <c r="F61" t="n">
-        <v>11088</v>
+        <v>0.0004260540008544922</v>
       </c>
     </row>
     <row r="62">
@@ -1795,16 +1795,16 @@
         <v>2500</v>
       </c>
       <c r="C62" t="n">
-        <v>13652</v>
+        <v>0.000514984130859375</v>
       </c>
       <c r="D62" t="n">
-        <v>23105</v>
+        <v>0.0007071495056152344</v>
       </c>
       <c r="E62" t="n">
-        <v>25134</v>
+        <v>0.0006527900695800781</v>
       </c>
       <c r="F62" t="n">
-        <v>14752</v>
+        <v>0.0005140304565429688</v>
       </c>
     </row>
     <row r="63">
@@ -1817,16 +1817,16 @@
         <v>3000</v>
       </c>
       <c r="C63" t="n">
-        <v>16828</v>
+        <v>0.0006260871887207031</v>
       </c>
       <c r="D63" t="n">
-        <v>28755</v>
+        <v>0.0008618831634521484</v>
       </c>
       <c r="E63" t="n">
-        <v>30882</v>
+        <v>0.0008261203765869141</v>
       </c>
       <c r="F63" t="n">
-        <v>18076</v>
+        <v>0.0006201267242431641</v>
       </c>
     </row>
     <row r="64">
@@ -1839,16 +1839,16 @@
         <v>3500</v>
       </c>
       <c r="C64" t="n">
-        <v>20064</v>
+        <v>0.0007407665252685547</v>
       </c>
       <c r="D64" t="n">
-        <v>34097</v>
+        <v>0.0007889270782470703</v>
       </c>
       <c r="E64" t="n">
-        <v>36917</v>
+        <v>0.0007991790771484375</v>
       </c>
       <c r="F64" t="n">
-        <v>21340</v>
+        <v>0.0006909370422363281</v>
       </c>
     </row>
     <row r="65">
@@ -1861,16 +1861,16 @@
         <v>4000</v>
       </c>
       <c r="C65" t="n">
-        <v>23728</v>
+        <v>0.000804901123046875</v>
       </c>
       <c r="D65" t="n">
-        <v>39868</v>
+        <v>0.0008680820465087891</v>
       </c>
       <c r="E65" t="n">
-        <v>42797</v>
+        <v>0.0008499622344970703</v>
       </c>
       <c r="F65" t="n">
-        <v>24176</v>
+        <v>0.0008511543273925781</v>
       </c>
     </row>
     <row r="66">
@@ -1883,16 +1883,16 @@
         <v>4500</v>
       </c>
       <c r="C66" t="n">
-        <v>26660</v>
+        <v>0.0009620189666748047</v>
       </c>
       <c r="D66" t="n">
-        <v>45448</v>
+        <v>0.0009598731994628906</v>
       </c>
       <c r="E66" t="n">
-        <v>48949</v>
+        <v>0.0009720325469970703</v>
       </c>
       <c r="F66" t="n">
-        <v>28148</v>
+        <v>0.0009169578552246094</v>
       </c>
     </row>
     <row r="67">
@@ -1905,16 +1905,16 @@
         <v>5000</v>
       </c>
       <c r="C67" t="n">
-        <v>29804</v>
+        <v>0.001106977462768555</v>
       </c>
       <c r="D67" t="n">
-        <v>51052</v>
+        <v>0.002241849899291992</v>
       </c>
       <c r="E67" t="n">
-        <v>55221</v>
+        <v>0.00156712532043457</v>
       </c>
       <c r="F67" t="n">
-        <v>32004</v>
+        <v>0.001331090927124023</v>
       </c>
     </row>
     <row r="68">
@@ -1927,16 +1927,16 @@
         <v>5500</v>
       </c>
       <c r="C68" t="n">
-        <v>33052</v>
+        <v>0.001966238021850586</v>
       </c>
       <c r="D68" t="n">
-        <v>57276</v>
+        <v>0.002067089080810547</v>
       </c>
       <c r="E68" t="n">
-        <v>61549</v>
+        <v>0.001596927642822266</v>
       </c>
       <c r="F68" t="n">
-        <v>35756</v>
+        <v>0.001444101333618164</v>
       </c>
     </row>
     <row r="69">
@@ -1949,16 +1949,16 @@
         <v>6000</v>
       </c>
       <c r="C69" t="n">
-        <v>36656</v>
+        <v>0.001308917999267578</v>
       </c>
       <c r="D69" t="n">
-        <v>62976</v>
+        <v>0.001688003540039062</v>
       </c>
       <c r="E69" t="n">
-        <v>67861</v>
+        <v>0.001482009887695312</v>
       </c>
       <c r="F69" t="n">
-        <v>39152</v>
+        <v>0.001348018646240234</v>
       </c>
     </row>
     <row r="70">
@@ -1971,16 +1971,16 @@
         <v>6500</v>
       </c>
       <c r="C70" t="n">
-        <v>40040</v>
+        <v>0.001373052597045898</v>
       </c>
       <c r="D70" t="n">
-        <v>69160</v>
+        <v>0.001779079437255859</v>
       </c>
       <c r="E70" t="n">
-        <v>74211</v>
+        <v>0.001787900924682617</v>
       </c>
       <c r="F70" t="n">
-        <v>42768</v>
+        <v>0.001356840133666992</v>
       </c>
     </row>
     <row r="71">
@@ -1993,16 +1993,16 @@
         <v>7000</v>
       </c>
       <c r="C71" t="n">
-        <v>43628</v>
+        <v>0.001497745513916016</v>
       </c>
       <c r="D71" t="n">
-        <v>75212</v>
+        <v>0.001812934875488281</v>
       </c>
       <c r="E71" t="n">
-        <v>80661</v>
+        <v>0.001578092575073242</v>
       </c>
       <c r="F71" t="n">
-        <v>46180</v>
+        <v>0.001466035842895508</v>
       </c>
     </row>
     <row r="72">
@@ -2015,16 +2015,16 @@
         <v>7500</v>
       </c>
       <c r="C72" t="n">
-        <v>47376</v>
+        <v>0.001692295074462891</v>
       </c>
       <c r="D72" t="n">
-        <v>81697</v>
+        <v>0.001657009124755859</v>
       </c>
       <c r="E72" t="n">
-        <v>87232</v>
+        <v>0.001869678497314453</v>
       </c>
       <c r="F72" t="n">
-        <v>49432</v>
+        <v>0.001556873321533203</v>
       </c>
     </row>
     <row r="73">
@@ -2037,16 +2037,16 @@
         <v>8000</v>
       </c>
       <c r="C73" t="n">
-        <v>51456</v>
+        <v>0.001662969589233398</v>
       </c>
       <c r="D73" t="n">
-        <v>88346</v>
+        <v>0.001783132553100586</v>
       </c>
       <c r="E73" t="n">
-        <v>93729</v>
+        <v>0.002127885818481445</v>
       </c>
       <c r="F73" t="n">
-        <v>52352</v>
+        <v>0.001629114151000977</v>
       </c>
     </row>
     <row r="74">
@@ -2059,16 +2059,16 @@
         <v>8500</v>
       </c>
       <c r="C74" t="n">
-        <v>54772</v>
+        <v>0.001779317855834961</v>
       </c>
       <c r="D74" t="n">
-        <v>94650</v>
+        <v>0.002223968505859375</v>
       </c>
       <c r="E74" t="n">
-        <v>100207</v>
+        <v>0.002060890197753906</v>
       </c>
       <c r="F74" t="n">
-        <v>56344</v>
+        <v>0.001699686050415039</v>
       </c>
     </row>
     <row r="75">
@@ -2081,16 +2081,16 @@
         <v>9000</v>
       </c>
       <c r="C75" t="n">
-        <v>57820</v>
+        <v>0.001878023147583008</v>
       </c>
       <c r="D75" t="n">
-        <v>100129</v>
+        <v>0.002539157867431641</v>
       </c>
       <c r="E75" t="n">
-        <v>107014</v>
+        <v>0.002259969711303711</v>
       </c>
       <c r="F75" t="n">
-        <v>60796</v>
+        <v>0.001827001571655273</v>
       </c>
     </row>
     <row r="76">
@@ -2103,16 +2103,16 @@
         <v>9500</v>
       </c>
       <c r="C76" t="n">
-        <v>61076</v>
+        <v>0.00195002555847168</v>
       </c>
       <c r="D76" t="n">
-        <v>106041</v>
+        <v>0.002544879913330078</v>
       </c>
       <c r="E76" t="n">
-        <v>113778</v>
+        <v>0.002084016799926758</v>
       </c>
       <c r="F76" t="n">
-        <v>65040</v>
+        <v>0.00201106071472168</v>
       </c>
     </row>
     <row r="77">
@@ -2125,16 +2125,16 @@
         <v>10000</v>
       </c>
       <c r="C77" t="n">
-        <v>64608</v>
+        <v>0.002374172210693359</v>
       </c>
       <c r="D77" t="n">
-        <v>112340</v>
+        <v>0.002400875091552734</v>
       </c>
       <c r="E77" t="n">
-        <v>120442</v>
+        <v>0.002486944198608398</v>
       </c>
       <c r="F77" t="n">
-        <v>69008</v>
+        <v>0.002110004425048828</v>
       </c>
     </row>
     <row r="78">
@@ -2147,16 +2147,16 @@
         <v>1000</v>
       </c>
       <c r="C78" t="n">
-        <v>8006</v>
+        <v>0.0009098052978515625</v>
       </c>
       <c r="D78" t="n">
-        <v>12964</v>
+        <v>0.001755237579345703</v>
       </c>
       <c r="E78" t="n">
-        <v>15471</v>
+        <v>0.002140998840332031</v>
       </c>
       <c r="F78" t="n">
-        <v>12706</v>
+        <v>0.001573801040649414</v>
       </c>
     </row>
     <row r="79">
@@ -2169,16 +2169,16 @@
         <v>1500</v>
       </c>
       <c r="C79" t="n">
-        <v>13507</v>
+        <v>0.001616954803466797</v>
       </c>
       <c r="D79" t="n">
-        <v>22707</v>
+        <v>0.003010749816894531</v>
       </c>
       <c r="E79" t="n">
-        <v>25417</v>
+        <v>0.003494977951049805</v>
       </c>
       <c r="F79" t="n">
-        <v>20603</v>
+        <v>0.002558231353759766</v>
       </c>
     </row>
     <row r="80">
@@ -2191,16 +2191,16 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>18006</v>
+        <v>0.002070188522338867</v>
       </c>
       <c r="D80" t="n">
-        <v>29996</v>
+        <v>0.004446983337402344</v>
       </c>
       <c r="E80" t="n">
-        <v>38067</v>
+        <v>0.005208253860473633</v>
       </c>
       <c r="F80" t="n">
-        <v>28406</v>
+        <v>0.003481149673461914</v>
       </c>
     </row>
     <row r="81">
@@ -2213,16 +2213,16 @@
         <v>2500</v>
       </c>
       <c r="C81" t="n">
-        <v>25005</v>
+        <v>0.002901077270507812</v>
       </c>
       <c r="D81" t="n">
-        <v>43217</v>
+        <v>0.005600929260253906</v>
       </c>
       <c r="E81" t="n">
-        <v>50230</v>
+        <v>0.006905794143676758</v>
       </c>
       <c r="F81" t="n">
-        <v>38145</v>
+        <v>0.004785299301147461</v>
       </c>
     </row>
     <row r="82">
@@ -2235,16 +2235,16 @@
         <v>3000</v>
       </c>
       <c r="C82" t="n">
-        <v>30007</v>
+        <v>0.003576993942260742</v>
       </c>
       <c r="D82" t="n">
-        <v>52569</v>
+        <v>0.007130146026611328</v>
       </c>
       <c r="E82" t="n">
-        <v>60485</v>
+        <v>0.00841975212097168</v>
       </c>
       <c r="F82" t="n">
-        <v>45699</v>
+        <v>0.005679845809936523</v>
       </c>
     </row>
     <row r="83">
@@ -2257,16 +2257,16 @@
         <v>3500</v>
       </c>
       <c r="C83" t="n">
-        <v>35007</v>
+        <v>0.004076957702636719</v>
       </c>
       <c r="D83" t="n">
-        <v>63887</v>
+        <v>0.008236169815063477</v>
       </c>
       <c r="E83" t="n">
-        <v>72115</v>
+        <v>0.009668827056884766</v>
       </c>
       <c r="F83" t="n">
-        <v>52967</v>
+        <v>0.006489276885986328</v>
       </c>
     </row>
     <row r="84">
@@ -2279,16 +2279,16 @@
         <v>4000</v>
       </c>
       <c r="C84" t="n">
-        <v>40006</v>
+        <v>0.004613876342773438</v>
       </c>
       <c r="D84" t="n">
-        <v>73180</v>
+        <v>0.01005792617797852</v>
       </c>
       <c r="E84" t="n">
-        <v>86241</v>
+        <v>0.01168465614318848</v>
       </c>
       <c r="F84" t="n">
-        <v>62806</v>
+        <v>0.007773876190185547</v>
       </c>
     </row>
     <row r="85">
@@ -2301,16 +2301,16 @@
         <v>4500</v>
       </c>
       <c r="C85" t="n">
-        <v>49505</v>
+        <v>0.0057220458984375</v>
       </c>
       <c r="D85" t="n">
-        <v>86719</v>
+        <v>0.01183795928955078</v>
       </c>
       <c r="E85" t="n">
-        <v>97813</v>
+        <v>0.01372814178466797</v>
       </c>
       <c r="F85" t="n">
-        <v>75845</v>
+        <v>0.009366035461425781</v>
       </c>
     </row>
     <row r="86">
@@ -2323,16 +2323,16 @@
         <v>5000</v>
       </c>
       <c r="C86" t="n">
-        <v>55005</v>
+        <v>0.006457090377807617</v>
       </c>
       <c r="D86" t="n">
-        <v>97473</v>
+        <v>0.01359891891479492</v>
       </c>
       <c r="E86" t="n">
-        <v>116637</v>
+        <v>0.01579689979553223</v>
       </c>
       <c r="F86" t="n">
-        <v>83785</v>
+        <v>0.01059699058532715</v>
       </c>
     </row>
     <row r="87">
@@ -2345,16 +2345,16 @@
         <v>5500</v>
       </c>
       <c r="C87" t="n">
-        <v>60508</v>
+        <v>0.00703883171081543</v>
       </c>
       <c r="D87" t="n">
-        <v>107604</v>
+        <v>0.01508188247680664</v>
       </c>
       <c r="E87" t="n">
-        <v>126313</v>
+        <v>0.01701092720031738</v>
       </c>
       <c r="F87" t="n">
-        <v>91588</v>
+        <v>0.011444091796875</v>
       </c>
     </row>
     <row r="88">
@@ -2367,16 +2367,16 @@
         <v>6000</v>
       </c>
       <c r="C88" t="n">
-        <v>66007</v>
+        <v>0.007699966430664062</v>
       </c>
       <c r="D88" t="n">
-        <v>121795</v>
+        <v>0.01655387878417969</v>
       </c>
       <c r="E88" t="n">
-        <v>142008</v>
+        <v>0.01940703392028809</v>
       </c>
       <c r="F88" t="n">
-        <v>100391</v>
+        <v>0.01230573654174805</v>
       </c>
     </row>
     <row r="89">
@@ -2389,16 +2389,16 @@
         <v>6500</v>
       </c>
       <c r="C89" t="n">
-        <v>71506</v>
+        <v>0.008267879486083984</v>
       </c>
       <c r="D89" t="n">
-        <v>140906</v>
+        <v>0.01846599578857422</v>
       </c>
       <c r="E89" t="n">
-        <v>153751</v>
+        <v>0.02218198776245117</v>
       </c>
       <c r="F89" t="n">
-        <v>112726</v>
+        <v>0.01424908638000488</v>
       </c>
     </row>
     <row r="90">
@@ -2411,16 +2411,16 @@
         <v>7000</v>
       </c>
       <c r="C90" t="n">
-        <v>77007</v>
+        <v>0.009042978286743164</v>
       </c>
       <c r="D90" t="n">
-        <v>140959</v>
+        <v>0.01992583274841309</v>
       </c>
       <c r="E90" t="n">
-        <v>164236</v>
+        <v>0.02335906028747559</v>
       </c>
       <c r="F90" t="n">
-        <v>116427</v>
+        <v>0.01453900337219238</v>
       </c>
     </row>
     <row r="91">
@@ -2433,16 +2433,16 @@
         <v>7500</v>
       </c>
       <c r="C91" t="n">
-        <v>82507</v>
+        <v>0.009630918502807617</v>
       </c>
       <c r="D91" t="n">
-        <v>155701</v>
+        <v>0.02090311050415039</v>
       </c>
       <c r="E91" t="n">
-        <v>179930</v>
+        <v>0.02458691596984863</v>
       </c>
       <c r="F91" t="n">
-        <v>126755</v>
+        <v>0.01558589935302734</v>
       </c>
     </row>
     <row r="92">
@@ -2455,16 +2455,16 @@
         <v>8000</v>
       </c>
       <c r="C92" t="n">
-        <v>88006</v>
+        <v>0.01017975807189941</v>
       </c>
       <c r="D92" t="n">
-        <v>168658</v>
+        <v>0.02344703674316406</v>
       </c>
       <c r="E92" t="n">
-        <v>200690</v>
+        <v>0.02914619445800781</v>
       </c>
       <c r="F92" t="n">
-        <v>137606</v>
+        <v>0.01735782623291016</v>
       </c>
     </row>
     <row r="93">
@@ -2477,16 +2477,16 @@
         <v>8500</v>
       </c>
       <c r="C93" t="n">
-        <v>102005</v>
+        <v>0.01206302642822266</v>
       </c>
       <c r="D93" t="n">
-        <v>187349</v>
+        <v>0.02645301818847656</v>
       </c>
       <c r="E93" t="n">
-        <v>214823</v>
+        <v>0.03033328056335449</v>
       </c>
       <c r="F93" t="n">
-        <v>156265</v>
+        <v>0.01938295364379883</v>
       </c>
     </row>
     <row r="94">
@@ -2499,16 +2499,16 @@
         <v>9000</v>
       </c>
       <c r="C94" t="n">
-        <v>108005</v>
+        <v>0.01253509521484375</v>
       </c>
       <c r="D94" t="n">
-        <v>206999</v>
+        <v>0.02781081199645996</v>
       </c>
       <c r="E94" t="n">
-        <v>237119</v>
+        <v>0.03200411796569824</v>
       </c>
       <c r="F94" t="n">
-        <v>165185</v>
+        <v>0.02088093757629395</v>
       </c>
     </row>
     <row r="95">
@@ -2521,16 +2521,16 @@
         <v>9500</v>
       </c>
       <c r="C95" t="n">
-        <v>114006</v>
+        <v>0.01360201835632324</v>
       </c>
       <c r="D95" t="n">
-        <v>219128</v>
+        <v>0.03122186660766602</v>
       </c>
       <c r="E95" t="n">
-        <v>245339</v>
+        <v>0.03472781181335449</v>
       </c>
       <c r="F95" t="n">
-        <v>169166</v>
+        <v>0.02070808410644531</v>
       </c>
     </row>
     <row r="96">
@@ -2543,16 +2543,16 @@
         <v>10000</v>
       </c>
       <c r="C96" t="n">
-        <v>120005</v>
+        <v>0.01385974884033203</v>
       </c>
       <c r="D96" t="n">
-        <v>232107</v>
+        <v>0.03126311302185059</v>
       </c>
       <c r="E96" t="n">
-        <v>283119</v>
+        <v>0.03948283195495605</v>
       </c>
       <c r="F96" t="n">
-        <v>182565</v>
+        <v>0.02292013168334961</v>
       </c>
     </row>
     <row r="97">
@@ -2565,16 +2565,16 @@
         <v>1000</v>
       </c>
       <c r="C97" t="n">
-        <v>8498</v>
+        <v>0.001263141632080078</v>
       </c>
       <c r="D97" t="n">
-        <v>9107</v>
+        <v>0.001456737518310547</v>
       </c>
       <c r="E97" t="n">
-        <v>12329</v>
+        <v>0.001893997192382812</v>
       </c>
       <c r="F97" t="n">
-        <v>8498</v>
+        <v>0.001218080520629883</v>
       </c>
     </row>
     <row r="98">
@@ -2587,16 +2587,16 @@
         <v>1500</v>
       </c>
       <c r="C98" t="n">
-        <v>13952</v>
+        <v>0.002116203308105469</v>
       </c>
       <c r="D98" t="n">
-        <v>14280</v>
+        <v>0.002238750457763672</v>
       </c>
       <c r="E98" t="n">
-        <v>20447</v>
+        <v>0.002930879592895508</v>
       </c>
       <c r="F98" t="n">
-        <v>13952</v>
+        <v>0.002110004425048828</v>
       </c>
     </row>
     <row r="99">
@@ -2609,16 +2609,16 @@
         <v>2000</v>
       </c>
       <c r="C99" t="n">
-        <v>18987</v>
+        <v>0.002544164657592773</v>
       </c>
       <c r="D99" t="n">
-        <v>20044</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="E99" t="n">
-        <v>25210</v>
+        <v>0.004415988922119141</v>
       </c>
       <c r="F99" t="n">
-        <v>18987</v>
+        <v>0.002632856369018555</v>
       </c>
     </row>
     <row r="100">
@@ -2631,16 +2631,16 @@
         <v>2500</v>
       </c>
       <c r="C100" t="n">
-        <v>24893</v>
+        <v>0.003587722778320312</v>
       </c>
       <c r="D100" t="n">
-        <v>26233</v>
+        <v>0.003882884979248047</v>
       </c>
       <c r="E100" t="n">
-        <v>34748</v>
+        <v>0.005037784576416016</v>
       </c>
       <c r="F100" t="n">
-        <v>24893</v>
+        <v>0.003650903701782227</v>
       </c>
     </row>
     <row r="101">
@@ -2653,16 +2653,16 @@
         <v>3000</v>
       </c>
       <c r="C101" t="n">
-        <v>30893</v>
+        <v>0.004628896713256836</v>
       </c>
       <c r="D101" t="n">
-        <v>31794</v>
+        <v>0.00488591194152832</v>
       </c>
       <c r="E101" t="n">
-        <v>39002</v>
+        <v>0.006135225296020508</v>
       </c>
       <c r="F101" t="n">
-        <v>30893</v>
+        <v>0.004642963409423828</v>
       </c>
     </row>
     <row r="102">
@@ -2675,16 +2675,16 @@
         <v>3500</v>
       </c>
       <c r="C102" t="n">
-        <v>36464</v>
+        <v>0.005357980728149414</v>
       </c>
       <c r="D102" t="n">
-        <v>37941</v>
+        <v>0.006045818328857422</v>
       </c>
       <c r="E102" t="n">
-        <v>49824</v>
+        <v>0.007251977920532227</v>
       </c>
       <c r="F102" t="n">
-        <v>36464</v>
+        <v>0.005208015441894531</v>
       </c>
     </row>
     <row r="103">
@@ -2697,16 +2697,16 @@
         <v>4000</v>
       </c>
       <c r="C103" t="n">
-        <v>41964</v>
+        <v>0.005549907684326172</v>
       </c>
       <c r="D103" t="n">
-        <v>44187</v>
+        <v>0.00683903694152832</v>
       </c>
       <c r="E103" t="n">
-        <v>57728</v>
+        <v>0.008678197860717773</v>
       </c>
       <c r="F103" t="n">
-        <v>41964</v>
+        <v>0.005763053894042969</v>
       </c>
     </row>
     <row r="104">
@@ -2719,16 +2719,16 @@
         <v>4500</v>
       </c>
       <c r="C104" t="n">
-        <v>48274</v>
+        <v>0.006861209869384766</v>
       </c>
       <c r="D104" t="n">
-        <v>51142</v>
+        <v>0.007484912872314453</v>
       </c>
       <c r="E104" t="n">
-        <v>65482</v>
+        <v>0.009456157684326172</v>
       </c>
       <c r="F104" t="n">
-        <v>48274</v>
+        <v>0.006547927856445312</v>
       </c>
     </row>
     <row r="105">
@@ -2741,16 +2741,16 @@
         <v>5000</v>
       </c>
       <c r="C105" t="n">
-        <v>54774</v>
+        <v>0.007508993148803711</v>
       </c>
       <c r="D105" t="n">
-        <v>58307</v>
+        <v>0.008321046829223633</v>
       </c>
       <c r="E105" t="n">
-        <v>71985</v>
+        <v>0.01039004325866699</v>
       </c>
       <c r="F105" t="n">
-        <v>54774</v>
+        <v>0.007417917251586914</v>
       </c>
     </row>
     <row r="106">
@@ -2763,16 +2763,16 @@
         <v>5500</v>
       </c>
       <c r="C106" t="n">
-        <v>61274</v>
+        <v>0.008402824401855469</v>
       </c>
       <c r="D106" t="n">
-        <v>63006</v>
+        <v>0.008947134017944336</v>
       </c>
       <c r="E106" t="n">
-        <v>82564</v>
+        <v>0.01163792610168457</v>
       </c>
       <c r="F106" t="n">
-        <v>61274</v>
+        <v>0.008450984954833984</v>
       </c>
     </row>
     <row r="107">
@@ -2785,16 +2785,16 @@
         <v>6000</v>
       </c>
       <c r="C107" t="n">
-        <v>67774</v>
+        <v>0.009614944458007812</v>
       </c>
       <c r="D107" t="n">
-        <v>71171</v>
+        <v>0.01024794578552246</v>
       </c>
       <c r="E107" t="n">
-        <v>93149</v>
+        <v>0.01308798789978027</v>
       </c>
       <c r="F107" t="n">
-        <v>67774</v>
+        <v>0.009710788726806641</v>
       </c>
     </row>
     <row r="108">
@@ -2807,16 +2807,16 @@
         <v>6500</v>
       </c>
       <c r="C108" t="n">
-        <v>73917</v>
+        <v>0.01031184196472168</v>
       </c>
       <c r="D108" t="n">
-        <v>76053</v>
+        <v>0.01121401786804199</v>
       </c>
       <c r="E108" t="n">
-        <v>102896</v>
+        <v>0.01389312744140625</v>
       </c>
       <c r="F108" t="n">
-        <v>73917</v>
+        <v>0.0103001594543457</v>
       </c>
     </row>
     <row r="109">
@@ -2829,16 +2829,16 @@
         <v>7000</v>
       </c>
       <c r="C109" t="n">
-        <v>79917</v>
+        <v>0.01064395904541016</v>
       </c>
       <c r="D109" t="n">
-        <v>89455</v>
+        <v>0.01186990737915039</v>
       </c>
       <c r="E109" t="n">
-        <v>110562</v>
+        <v>0.01502394676208496</v>
       </c>
       <c r="F109" t="n">
-        <v>79917</v>
+        <v>0.01059103012084961</v>
       </c>
     </row>
     <row r="110">
@@ -2851,16 +2851,16 @@
         <v>7500</v>
       </c>
       <c r="C110" t="n">
-        <v>85917</v>
+        <v>0.01105284690856934</v>
       </c>
       <c r="D110" t="n">
-        <v>89434</v>
+        <v>0.01272010803222656</v>
       </c>
       <c r="E110" t="n">
-        <v>114214</v>
+        <v>0.01568007469177246</v>
       </c>
       <c r="F110" t="n">
-        <v>85917</v>
+        <v>0.01108098030090332</v>
       </c>
     </row>
     <row r="111">
@@ -2873,16 +2873,16 @@
         <v>8000</v>
       </c>
       <c r="C111" t="n">
-        <v>91917</v>
+        <v>0.01174092292785645</v>
       </c>
       <c r="D111" t="n">
-        <v>102590</v>
+        <v>0.01388001441955566</v>
       </c>
       <c r="E111" t="n">
-        <v>121605</v>
+        <v>0.01759886741638184</v>
       </c>
       <c r="F111" t="n">
-        <v>91917</v>
+        <v>0.01172804832458496</v>
       </c>
     </row>
     <row r="112">
@@ -2895,16 +2895,16 @@
         <v>8500</v>
       </c>
       <c r="C112" t="n">
-        <v>98535</v>
+        <v>0.01286816596984863</v>
       </c>
       <c r="D112" t="n">
-        <v>102917</v>
+        <v>0.0147552490234375</v>
       </c>
       <c r="E112" t="n">
-        <v>128072</v>
+        <v>0.01874685287475586</v>
       </c>
       <c r="F112" t="n">
-        <v>98535</v>
+        <v>0.01253485679626465</v>
       </c>
     </row>
     <row r="113">
@@ -2917,16 +2917,16 @@
         <v>9000</v>
       </c>
       <c r="C113" t="n">
-        <v>105535</v>
+        <v>0.01347780227661133</v>
       </c>
       <c r="D113" t="n">
-        <v>112594</v>
+        <v>0.0156400203704834</v>
       </c>
       <c r="E113" t="n">
-        <v>142762</v>
+        <v>0.0198359489440918</v>
       </c>
       <c r="F113" t="n">
-        <v>105535</v>
+        <v>0.01367497444152832</v>
       </c>
     </row>
     <row r="114">
@@ -2939,16 +2939,16 @@
         <v>9500</v>
       </c>
       <c r="C114" t="n">
-        <v>112535</v>
+        <v>0.01465201377868652</v>
       </c>
       <c r="D114" t="n">
-        <v>116543</v>
+        <v>0.0167391300201416</v>
       </c>
       <c r="E114" t="n">
-        <v>160959</v>
+        <v>0.02263593673706055</v>
       </c>
       <c r="F114" t="n">
-        <v>112535</v>
+        <v>0.01502323150634766</v>
       </c>
     </row>
     <row r="115">
@@ -2961,16 +2961,16 @@
         <v>10000</v>
       </c>
       <c r="C115" t="n">
-        <v>119535</v>
+        <v>0.01585912704467773</v>
       </c>
       <c r="D115" t="n">
-        <v>123215</v>
+        <v>0.01775312423706055</v>
       </c>
       <c r="E115" t="n">
-        <v>164116</v>
+        <v>0.02243494987487793</v>
       </c>
       <c r="F115" t="n">
-        <v>119535</v>
+        <v>0.01563000679016113</v>
       </c>
     </row>
     <row r="116">
@@ -2983,16 +2983,16 @@
         <v>1000</v>
       </c>
       <c r="C116" t="n">
-        <v>8709</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="D116" t="n">
-        <v>8559</v>
+        <v>0.003946781158447266</v>
       </c>
       <c r="E116" t="n">
-        <v>8102</v>
+        <v>0.003773927688598633</v>
       </c>
       <c r="F116" t="n">
-        <v>7317</v>
+        <v>0.003344058990478516</v>
       </c>
     </row>
     <row r="117">
@@ -3005,16 +3005,16 @@
         <v>1500</v>
       </c>
       <c r="C117" t="n">
-        <v>14049</v>
+        <v>0.00622105598449707</v>
       </c>
       <c r="D117" t="n">
-        <v>13857</v>
+        <v>0.006335973739624023</v>
       </c>
       <c r="E117" t="n">
-        <v>13056</v>
+        <v>0.005846023559570312</v>
       </c>
       <c r="F117" t="n">
-        <v>12023</v>
+        <v>0.005405902862548828</v>
       </c>
     </row>
     <row r="118">
@@ -3027,16 +3027,16 @@
         <v>2000</v>
       </c>
       <c r="C118" t="n">
-        <v>19301</v>
+        <v>0.0085601806640625</v>
       </c>
       <c r="D118" t="n">
-        <v>19223</v>
+        <v>0.008500099182128906</v>
       </c>
       <c r="E118" t="n">
-        <v>18149</v>
+        <v>0.0080718994140625</v>
       </c>
       <c r="F118" t="n">
-        <v>16709</v>
+        <v>0.00749516487121582</v>
       </c>
     </row>
     <row r="119">
@@ -3049,16 +3049,16 @@
         <v>2500</v>
       </c>
       <c r="C119" t="n">
-        <v>25315</v>
+        <v>0.01113295555114746</v>
       </c>
       <c r="D119" t="n">
-        <v>24979</v>
+        <v>0.0109870433807373</v>
       </c>
       <c r="E119" t="n">
-        <v>23482</v>
+        <v>0.01048088073730469</v>
       </c>
       <c r="F119" t="n">
-        <v>21731</v>
+        <v>0.009769916534423828</v>
       </c>
     </row>
     <row r="120">
@@ -3071,16 +3071,16 @@
         <v>3000</v>
       </c>
       <c r="C120" t="n">
-        <v>31253</v>
+        <v>0.0136868953704834</v>
       </c>
       <c r="D120" t="n">
-        <v>30821</v>
+        <v>0.01352906227111816</v>
       </c>
       <c r="E120" t="n">
-        <v>29093</v>
+        <v>0.01301407814025879</v>
       </c>
       <c r="F120" t="n">
-        <v>26751</v>
+        <v>0.01200413703918457</v>
       </c>
     </row>
     <row r="121">
@@ -3093,16 +3093,16 @@
         <v>3500</v>
       </c>
       <c r="C121" t="n">
-        <v>37199</v>
+        <v>0.01644587516784668</v>
       </c>
       <c r="D121" t="n">
-        <v>36643</v>
+        <v>0.01623106002807617</v>
       </c>
       <c r="E121" t="n">
-        <v>34610</v>
+        <v>0.0156242847442627</v>
       </c>
       <c r="F121" t="n">
-        <v>32151</v>
+        <v>0.01475691795349121</v>
       </c>
     </row>
     <row r="122">
@@ -3115,16 +3115,16 @@
         <v>4000</v>
       </c>
       <c r="C122" t="n">
-        <v>43143</v>
+        <v>0.01932716369628906</v>
       </c>
       <c r="D122" t="n">
-        <v>42511</v>
+        <v>0.01901698112487793</v>
       </c>
       <c r="E122" t="n">
-        <v>40291</v>
+        <v>0.01858615875244141</v>
       </c>
       <c r="F122" t="n">
-        <v>37437</v>
+        <v>0.01709485054016113</v>
       </c>
     </row>
     <row r="123">
@@ -3137,16 +3137,16 @@
         <v>4500</v>
       </c>
       <c r="C123" t="n">
-        <v>49483</v>
+        <v>0.02184700965881348</v>
       </c>
       <c r="D123" t="n">
-        <v>48693</v>
+        <v>0.02145695686340332</v>
       </c>
       <c r="E123" t="n">
-        <v>46200</v>
+        <v>0.02050614356994629</v>
       </c>
       <c r="F123" t="n">
-        <v>42809</v>
+        <v>0.01912283897399902</v>
       </c>
     </row>
     <row r="124">
@@ -3159,16 +3159,16 @@
         <v>5000</v>
       </c>
       <c r="C124" t="n">
-        <v>55933</v>
+        <v>0.02486395835876465</v>
       </c>
       <c r="D124" t="n">
-        <v>55025</v>
+        <v>0.02491307258605957</v>
       </c>
       <c r="E124" t="n">
-        <v>52128</v>
+        <v>0.02375602722167969</v>
       </c>
       <c r="F124" t="n">
-        <v>48437</v>
+        <v>0.02202296257019043</v>
       </c>
     </row>
     <row r="125">
@@ -3181,16 +3181,16 @@
         <v>5500</v>
       </c>
       <c r="C125" t="n">
-        <v>62385</v>
+        <v>0.02837610244750977</v>
       </c>
       <c r="D125" t="n">
-        <v>61359</v>
+        <v>0.02757096290588379</v>
       </c>
       <c r="E125" t="n">
-        <v>58093</v>
+        <v>0.02588415145874023</v>
       </c>
       <c r="F125" t="n">
-        <v>54041</v>
+        <v>0.02424907684326172</v>
       </c>
     </row>
     <row r="126">
@@ -3203,16 +3203,16 @@
         <v>6000</v>
       </c>
       <c r="C126" t="n">
-        <v>68829</v>
+        <v>0.03099274635314941</v>
       </c>
       <c r="D126" t="n">
-        <v>67657</v>
+        <v>0.03109192848205566</v>
       </c>
       <c r="E126" t="n">
-        <v>64245</v>
+        <v>0.02958106994628906</v>
       </c>
       <c r="F126" t="n">
-        <v>59599</v>
+        <v>0.02740120887756348</v>
       </c>
     </row>
     <row r="127">
@@ -3225,16 +3225,16 @@
         <v>6500</v>
       </c>
       <c r="C127" t="n">
-        <v>75303</v>
+        <v>0.03376388549804688</v>
       </c>
       <c r="D127" t="n">
-        <v>74057</v>
+        <v>0.03307271003723145</v>
       </c>
       <c r="E127" t="n">
-        <v>70186</v>
+        <v>0.03140902519226074</v>
       </c>
       <c r="F127" t="n">
-        <v>65203</v>
+        <v>0.02969813346862793</v>
       </c>
     </row>
     <row r="128">
@@ -3247,16 +3247,16 @@
         <v>7000</v>
       </c>
       <c r="C128" t="n">
-        <v>81765</v>
+        <v>0.03756308555603027</v>
       </c>
       <c r="D128" t="n">
-        <v>80355</v>
+        <v>0.03630399703979492</v>
       </c>
       <c r="E128" t="n">
-        <v>76360</v>
+        <v>0.03427410125732422</v>
       </c>
       <c r="F128" t="n">
-        <v>71171</v>
+        <v>0.03212809562683105</v>
       </c>
     </row>
     <row r="129">
@@ -3269,16 +3269,16 @@
         <v>7500</v>
       </c>
       <c r="C129" t="n">
-        <v>88191</v>
+        <v>0.03958797454833984</v>
       </c>
       <c r="D129" t="n">
-        <v>86717</v>
+        <v>0.03955817222595215</v>
       </c>
       <c r="E129" t="n">
-        <v>82650</v>
+        <v>0.03763794898986816</v>
       </c>
       <c r="F129" t="n">
-        <v>76905</v>
+        <v>0.03485894203186035</v>
       </c>
     </row>
     <row r="130">
@@ -3291,16 +3291,16 @@
         <v>8000</v>
       </c>
       <c r="C130" t="n">
-        <v>94639</v>
+        <v>0.04262566566467285</v>
       </c>
       <c r="D130" t="n">
-        <v>93045</v>
+        <v>0.04185605049133301</v>
       </c>
       <c r="E130" t="n">
-        <v>88687</v>
+        <v>0.03974199295043945</v>
       </c>
       <c r="F130" t="n">
-        <v>82777</v>
+        <v>0.03817200660705566</v>
       </c>
     </row>
     <row r="131">
@@ -3313,16 +3313,16 @@
         <v>8500</v>
       </c>
       <c r="C131" t="n">
-        <v>101339</v>
+        <v>0.04607510566711426</v>
       </c>
       <c r="D131" t="n">
-        <v>99671</v>
+        <v>0.04516506195068359</v>
       </c>
       <c r="E131" t="n">
-        <v>95000</v>
+        <v>0.04281497001647949</v>
       </c>
       <c r="F131" t="n">
-        <v>88553</v>
+        <v>0.04043698310852051</v>
       </c>
     </row>
     <row r="132">
@@ -3335,16 +3335,16 @@
         <v>9000</v>
       </c>
       <c r="C132" t="n">
-        <v>108223</v>
+        <v>0.04965877532958984</v>
       </c>
       <c r="D132" t="n">
-        <v>106451</v>
+        <v>0.04815793037414551</v>
       </c>
       <c r="E132" t="n">
-        <v>101359</v>
+        <v>0.04575586318969727</v>
       </c>
       <c r="F132" t="n">
-        <v>94687</v>
+        <v>0.04305386543273926</v>
       </c>
     </row>
     <row r="133">
@@ -3357,16 +3357,16 @@
         <v>9500</v>
       </c>
       <c r="C133" t="n">
-        <v>115081</v>
+        <v>0.05348777770996094</v>
       </c>
       <c r="D133" t="n">
-        <v>113181</v>
+        <v>0.05311393737792969</v>
       </c>
       <c r="E133" t="n">
-        <v>107616</v>
+        <v>0.05530691146850586</v>
       </c>
       <c r="F133" t="n">
-        <v>100703</v>
+        <v>0.05090212821960449</v>
       </c>
     </row>
     <row r="134">
@@ -3379,16 +3379,16 @@
         <v>10000</v>
       </c>
       <c r="C134" t="n">
-        <v>121957</v>
+        <v>0.05557703971862793</v>
       </c>
       <c r="D134" t="n">
-        <v>120079</v>
+        <v>0.05869698524475098</v>
       </c>
       <c r="E134" t="n">
-        <v>114211</v>
+        <v>0.05182290077209473</v>
       </c>
       <c r="F134" t="n">
-        <v>106697</v>
+        <v>0.04873514175415039</v>
       </c>
     </row>
   </sheetData>

--- a/sorting_results.xlsx
+++ b/sorting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07758903503417969</v>
+        <v>0.02763485908508301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06564021110534668</v>
+        <v>0.02832698822021484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05384612083435059</v>
+        <v>0.02751898765563965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0535280704498291</v>
+        <v>0.02852511405944824</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>1500</v>
       </c>
       <c r="C3" t="n">
-        <v>0.108018159866333</v>
+        <v>0.06155705451965332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09969210624694824</v>
+        <v>0.06182289123535156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0889589786529541</v>
+        <v>0.06200885772705078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09038686752319336</v>
+        <v>0.06440114974975586</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>2000</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1566650867462158</v>
+        <v>0.1097722053527832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1571741104125977</v>
+        <v>0.1095407009124756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1570560932159424</v>
+        <v>0.1102159023284912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1612391471862793</v>
+        <v>0.115225076675415</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>2500</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2446756362915039</v>
+        <v>0.1712687015533447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2440838813781738</v>
+        <v>0.1718993186950684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2452232837677002</v>
+        <v>0.1723687648773193</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2506270408630371</v>
+        <v>0.1790628433227539</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>3000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3516407012939453</v>
+        <v>0.3309996128082275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3513181209564209</v>
+        <v>0.2475781440734863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3522698879241943</v>
+        <v>0.2468481063842773</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3606669902801514</v>
+        <v>0.2570288181304932</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +585,16 @@
         <v>3500</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4796998500823975</v>
+        <v>0.335864782333374</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4782698154449463</v>
+        <v>0.3351030349731445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4791200160980225</v>
+        <v>0.3367362022399902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4915771484375</v>
+        <v>0.349783182144165</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +607,16 @@
         <v>4000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6238980293273926</v>
+        <v>0.4378457069396973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6256561279296875</v>
+        <v>0.4436349868774414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6442680358886719</v>
+        <v>0.4808249473571777</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6450021266937256</v>
+        <v>0.8400051593780518</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>4500</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8269660472869873</v>
+        <v>0.8028287887573242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8600859642028809</v>
+        <v>0.6607122421264648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7951202392578125</v>
+        <v>1.73974609375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8208587169647217</v>
+        <v>1.084976196289062</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>5000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.054775953292847</v>
+        <v>0.8214280605316162</v>
       </c>
       <c r="D10" t="n">
-        <v>1.002745151519775</v>
+        <v>0.6964280605316162</v>
       </c>
       <c r="E10" t="n">
-        <v>0.981809139251709</v>
+        <v>0.6881957054138184</v>
       </c>
       <c r="F10" t="n">
-        <v>1.053350925445557</v>
+        <v>0.7131638526916504</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>5500</v>
       </c>
       <c r="C11" t="n">
-        <v>1.268526077270508</v>
+        <v>0.8306691646575928</v>
       </c>
       <c r="D11" t="n">
-        <v>1.188674688339233</v>
+        <v>0.8330340385437012</v>
       </c>
       <c r="E11" t="n">
-        <v>1.190330982208252</v>
+        <v>0.8331778049468994</v>
       </c>
       <c r="F11" t="n">
-        <v>1.222375154495239</v>
+        <v>0.8660521507263184</v>
       </c>
     </row>
     <row r="12">
@@ -695,16 +695,16 @@
         <v>6000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.476966857910156</v>
+        <v>0.9896399974822998</v>
       </c>
       <c r="D12" t="n">
-        <v>2.137216091156006</v>
+        <v>0.9873809814453125</v>
       </c>
       <c r="E12" t="n">
-        <v>1.461122035980225</v>
+        <v>0.9919171333312988</v>
       </c>
       <c r="F12" t="n">
-        <v>1.472672700881958</v>
+        <v>1.141316890716553</v>
       </c>
     </row>
     <row r="13">
@@ -717,16 +717,16 @@
         <v>6500</v>
       </c>
       <c r="C13" t="n">
-        <v>1.829779148101807</v>
+        <v>1.159003973007202</v>
       </c>
       <c r="D13" t="n">
-        <v>1.655170202255249</v>
+        <v>1.160068035125732</v>
       </c>
       <c r="E13" t="n">
-        <v>1.661042213439941</v>
+        <v>1.16595196723938</v>
       </c>
       <c r="F13" t="n">
-        <v>1.696310043334961</v>
+        <v>1.620122194290161</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         <v>7000</v>
       </c>
       <c r="C14" t="n">
-        <v>2.104610204696655</v>
+        <v>1.960403203964233</v>
       </c>
       <c r="D14" t="n">
-        <v>1.943035125732422</v>
+        <v>1.944880962371826</v>
       </c>
       <c r="E14" t="n">
-        <v>1.944490909576416</v>
+        <v>1.349637746810913</v>
       </c>
       <c r="F14" t="n">
-        <v>2.019044876098633</v>
+        <v>1.574021816253662</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>7500</v>
       </c>
       <c r="C15" t="n">
-        <v>2.241614818572998</v>
+        <v>1.549970865249634</v>
       </c>
       <c r="D15" t="n">
-        <v>2.210121870040894</v>
+        <v>1.549026012420654</v>
       </c>
       <c r="E15" t="n">
-        <v>3.649381875991821</v>
+        <v>1.549645900726318</v>
       </c>
       <c r="F15" t="n">
-        <v>2.307039022445679</v>
+        <v>1.611685037612915</v>
       </c>
     </row>
     <row r="16">
@@ -783,16 +783,16 @@
         <v>8000</v>
       </c>
       <c r="C16" t="n">
-        <v>2.550091981887817</v>
+        <v>1.755084037780762</v>
       </c>
       <c r="D16" t="n">
-        <v>2.581423759460449</v>
+        <v>1.760665893554688</v>
       </c>
       <c r="E16" t="n">
-        <v>2.510962009429932</v>
+        <v>1.765067100524902</v>
       </c>
       <c r="F16" t="n">
-        <v>2.565546989440918</v>
+        <v>1.831690073013306</v>
       </c>
     </row>
     <row r="17">
@@ -805,16 +805,16 @@
         <v>8500</v>
       </c>
       <c r="C17" t="n">
-        <v>2.914736270904541</v>
+        <v>2.156749963760376</v>
       </c>
       <c r="D17" t="n">
-        <v>2.85447096824646</v>
+        <v>2.015605926513672</v>
       </c>
       <c r="E17" t="n">
-        <v>2.876950025558472</v>
+        <v>3.120712995529175</v>
       </c>
       <c r="F17" t="n">
-        <v>2.944251775741577</v>
+        <v>2.571525812149048</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>9000</v>
       </c>
       <c r="C18" t="n">
-        <v>3.226206064224243</v>
+        <v>2.303453922271729</v>
       </c>
       <c r="D18" t="n">
-        <v>3.173779010772705</v>
+        <v>2.227437019348145</v>
       </c>
       <c r="E18" t="n">
-        <v>3.192038297653198</v>
+        <v>2.243868112564087</v>
       </c>
       <c r="F18" t="n">
-        <v>3.246825218200684</v>
+        <v>2.320892095565796</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         <v>9500</v>
       </c>
       <c r="C19" t="n">
-        <v>3.531393051147461</v>
+        <v>2.570662021636963</v>
       </c>
       <c r="D19" t="n">
-        <v>3.531800985336304</v>
+        <v>2.713289022445679</v>
       </c>
       <c r="E19" t="n">
-        <v>3.537649154663086</v>
+        <v>2.48875093460083</v>
       </c>
       <c r="F19" t="n">
-        <v>3.687109231948853</v>
+        <v>2.581825017929077</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         <v>10000</v>
       </c>
       <c r="C20" t="n">
-        <v>3.917341947555542</v>
+        <v>2.804023742675781</v>
       </c>
       <c r="D20" t="n">
-        <v>3.92037296295166</v>
+        <v>2.79023289680481</v>
       </c>
       <c r="E20" t="n">
-        <v>3.926445007324219</v>
+        <v>2.774957180023193</v>
       </c>
       <c r="F20" t="n">
-        <v>4.14205527305603</v>
+        <v>2.857669115066528</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         <v>1000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0007028579711914062</v>
+        <v>0.0001392364501953125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009489297866821289</v>
+        <v>0.006793975830078125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04053688049316406</v>
+        <v>0.03074479103088379</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07609701156616211</v>
+        <v>0.06321096420288086</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>1500</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003509521484375</v>
+        <v>0.0002288818359375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0302581787109375</v>
+        <v>0.01686978340148926</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1701281070709229</v>
+        <v>0.06739401817321777</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2545762062072754</v>
+        <v>0.1295461654663086</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +937,16 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003750324249267578</v>
+        <v>0.0002739429473876953</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0368950366973877</v>
+        <v>0.02739787101745605</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1857719421386719</v>
+        <v>0.11631178855896</v>
       </c>
       <c r="F23" t="n">
-        <v>0.315680980682373</v>
+        <v>0.2294127941131592</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +959,16 @@
         <v>2500</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004441738128662109</v>
+        <v>0.0003387928009033203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05153274536132812</v>
+        <v>0.04391813278198242</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1878669261932373</v>
+        <v>0.1832830905914307</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3603048324584961</v>
+        <v>0.3593630790710449</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>3000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004308223724365234</v>
+        <v>0.0004119873046875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05697989463806152</v>
+        <v>0.06542778015136719</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2623171806335449</v>
+        <v>0.2646710872650146</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5198960304260254</v>
+        <v>0.5195231437683105</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>3500</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004811286926269531</v>
+        <v>0.0004799365997314453</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08952593803405762</v>
+        <v>0.08263492584228516</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3667490482330322</v>
+        <v>0.3585836887359619</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7094409465789795</v>
+        <v>0.7087159156799316</v>
       </c>
     </row>
     <row r="27">
@@ -1028,13 +1028,13 @@
         <v>0.0005459785461425781</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1158950328826904</v>
+        <v>0.1105673313140869</v>
       </c>
       <c r="E27" t="n">
-        <v>0.477208137512207</v>
+        <v>0.460684061050415</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9283158779144287</v>
+        <v>0.9284110069274902</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>4500</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006191730499267578</v>
+        <v>0.0006279945373535156</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1276929378509521</v>
+        <v>0.1380698680877686</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5928900241851807</v>
+        <v>0.5955510139465332</v>
       </c>
       <c r="F28" t="n">
-        <v>1.17714786529541</v>
+        <v>1.17692232131958</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>5000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006871223449707031</v>
+        <v>0.0006988048553466797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1639258861541748</v>
+        <v>0.1649000644683838</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7493293285369873</v>
+        <v>0.7310738563537598</v>
       </c>
       <c r="F29" t="n">
-        <v>1.455217361450195</v>
+        <v>1.454731702804565</v>
       </c>
     </row>
     <row r="30">
@@ -1091,16 +1091,16 @@
         <v>5500</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007600784301757812</v>
+        <v>0.0007519721984863281</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2085809707641602</v>
+        <v>0.2218527793884277</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8895180225372314</v>
+        <v>0.889681339263916</v>
       </c>
       <c r="F30" t="n">
-        <v>1.76591682434082</v>
+        <v>1.763544082641602</v>
       </c>
     </row>
     <row r="31">
@@ -1113,16 +1113,16 @@
         <v>6000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008258819580078125</v>
+        <v>0.0008211135864257812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2437171936035156</v>
+        <v>0.252971887588501</v>
       </c>
       <c r="E31" t="n">
-        <v>1.071758985519409</v>
+        <v>1.06010890007019</v>
       </c>
       <c r="F31" t="n">
-        <v>2.101008176803589</v>
+        <v>2.101106882095337</v>
       </c>
     </row>
     <row r="32">
@@ -1135,16 +1135,16 @@
         <v>6500</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0009448528289794922</v>
+        <v>0.0008900165557861328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2823596000671387</v>
+        <v>0.2815501689910889</v>
       </c>
       <c r="E32" t="n">
-        <v>1.272028923034668</v>
+        <v>1.263972997665405</v>
       </c>
       <c r="F32" t="n">
-        <v>2.468135118484497</v>
+        <v>2.470925807952881</v>
       </c>
     </row>
     <row r="33">
@@ -1157,16 +1157,16 @@
         <v>7000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001010894775390625</v>
+        <v>0.001035928726196289</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3136200904846191</v>
+        <v>0.3281421661376953</v>
       </c>
       <c r="E33" t="n">
-        <v>1.45713996887207</v>
+        <v>1.442118167877197</v>
       </c>
       <c r="F33" t="n">
-        <v>2.917876005172729</v>
+        <v>2.864482164382935</v>
       </c>
     </row>
     <row r="34">
@@ -1179,16 +1179,16 @@
         <v>7500</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001031160354614258</v>
+        <v>0.001028060913085938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3782410621643066</v>
+        <v>0.3985979557037354</v>
       </c>
       <c r="E34" t="n">
-        <v>1.645681142807007</v>
+        <v>1.678317070007324</v>
       </c>
       <c r="F34" t="n">
-        <v>3.367813110351562</v>
+        <v>3.399005889892578</v>
       </c>
     </row>
     <row r="35">
@@ -1201,16 +1201,16 @@
         <v>8000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001096963882446289</v>
+        <v>0.001096725463867188</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4514601230621338</v>
+        <v>0.4314382076263428</v>
       </c>
       <c r="E35" t="n">
-        <v>2.691707134246826</v>
+        <v>1.888511419296265</v>
       </c>
       <c r="F35" t="n">
-        <v>3.819469690322876</v>
+        <v>3.772828817367554</v>
       </c>
     </row>
     <row r="36">
@@ -1223,16 +1223,16 @@
         <v>8500</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001175880432128906</v>
+        <v>0.001163005828857422</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5029308795928955</v>
+        <v>0.5298900604248047</v>
       </c>
       <c r="E36" t="n">
-        <v>2.152639150619507</v>
+        <v>2.114782094955444</v>
       </c>
       <c r="F36" t="n">
-        <v>4.235471963882446</v>
+        <v>4.222858905792236</v>
       </c>
     </row>
     <row r="37">
@@ -1245,16 +1245,16 @@
         <v>9000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001233816146850586</v>
+        <v>0.001234292984008789</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5599169731140137</v>
+        <v>0.552340030670166</v>
       </c>
       <c r="E37" t="n">
-        <v>2.369350910186768</v>
+        <v>2.359699964523315</v>
       </c>
       <c r="F37" t="n">
-        <v>4.756420135498047</v>
+        <v>4.737952947616577</v>
       </c>
     </row>
     <row r="38">
@@ -1267,16 +1267,16 @@
         <v>9500</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001306772232055664</v>
+        <v>0.001304149627685547</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6066298484802246</v>
+        <v>0.6306989192962646</v>
       </c>
       <c r="E38" t="n">
-        <v>2.665809869766235</v>
+        <v>2.669487953186035</v>
       </c>
       <c r="F38" t="n">
-        <v>5.297202825546265</v>
+        <v>5.280477046966553</v>
       </c>
     </row>
     <row r="39">
@@ -1289,16 +1289,16 @@
         <v>10000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00138401985168457</v>
+        <v>0.001377105712890625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7001190185546875</v>
+        <v>0.6879820823669434</v>
       </c>
       <c r="E39" t="n">
-        <v>3.083462953567505</v>
+        <v>2.935413122177124</v>
       </c>
       <c r="F39" t="n">
-        <v>5.857935905456543</v>
+        <v>5.869024038314819</v>
       </c>
     </row>
     <row r="40">
@@ -1311,16 +1311,16 @@
         <v>1000</v>
       </c>
       <c r="C40" t="n">
-        <v>7.700920104980469e-05</v>
+        <v>7.486343383789062e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04302096366882324</v>
+        <v>0.04149198532104492</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06525802612304688</v>
+        <v>0.06125974655151367</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08394026756286621</v>
+        <v>0.08368396759033203</v>
       </c>
     </row>
     <row r="41">
@@ -1333,16 +1333,16 @@
         <v>1500</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001096725463867188</v>
+        <v>0.0001091957092285156</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09662199020385742</v>
+        <v>0.09259891510009766</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1415841579437256</v>
+        <v>0.1429471969604492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1925687789916992</v>
+        <v>0.1923828125</v>
       </c>
     </row>
     <row r="42">
@@ -1355,16 +1355,16 @@
         <v>2000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001521110534667969</v>
+        <v>0.0001471042633056641</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1727280616760254</v>
+        <v>0.1660358905792236</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2592892646789551</v>
+        <v>0.2549331188201904</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3528470993041992</v>
+        <v>0.3544209003448486</v>
       </c>
     </row>
     <row r="43">
@@ -1377,16 +1377,16 @@
         <v>2500</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001840591430664062</v>
+        <v>0.0001847743988037109</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2787182331085205</v>
+        <v>0.2665808200836182</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4001839160919189</v>
+        <v>0.3976659774780273</v>
       </c>
       <c r="F43" t="n">
-        <v>0.54345703125</v>
+        <v>0.542651891708374</v>
       </c>
     </row>
     <row r="44">
@@ -1399,16 +1399,16 @@
         <v>3000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002219676971435547</v>
+        <v>0.0002300739288330078</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3835067749023438</v>
+        <v>0.3957159519195557</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5767722129821777</v>
+        <v>0.5830228328704834</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7850711345672607</v>
+        <v>0.8016469478607178</v>
       </c>
     </row>
     <row r="45">
@@ -1421,16 +1421,16 @@
         <v>3500</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002579689025878906</v>
+        <v>0.0002589225769042969</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5289299488067627</v>
+        <v>0.5250701904296875</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7878069877624512</v>
+        <v>0.7823429107666016</v>
       </c>
       <c r="F45" t="n">
-        <v>1.071583986282349</v>
+        <v>1.070538997650146</v>
       </c>
     </row>
     <row r="46">
@@ -1443,16 +1443,16 @@
         <v>4000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0002970695495605469</v>
+        <v>0.0003058910369873047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6888947486877441</v>
+        <v>0.7035892009735107</v>
       </c>
       <c r="E46" t="n">
-        <v>1.031584978103638</v>
+        <v>1.05138111114502</v>
       </c>
       <c r="F46" t="n">
-        <v>1.487957715988159</v>
+        <v>1.4306480884552</v>
       </c>
     </row>
     <row r="47">
@@ -1465,16 +1465,16 @@
         <v>4500</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003571510314941406</v>
+        <v>0.0003330707550048828</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9247450828552246</v>
+        <v>0.8721179962158203</v>
       </c>
       <c r="E47" t="n">
-        <v>1.315871000289917</v>
+        <v>1.300211191177368</v>
       </c>
       <c r="F47" t="n">
-        <v>1.809325218200684</v>
+        <v>1.775669097900391</v>
       </c>
     </row>
     <row r="48">
@@ -1487,16 +1487,16 @@
         <v>5000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003707408905029297</v>
+        <v>0.000370025634765625</v>
       </c>
       <c r="D48" t="n">
-        <v>1.090979099273682</v>
+        <v>1.067387819290161</v>
       </c>
       <c r="E48" t="n">
-        <v>1.598010778427124</v>
+        <v>1.603787899017334</v>
       </c>
       <c r="F48" t="n">
-        <v>2.20026707649231</v>
+        <v>2.198335886001587</v>
       </c>
     </row>
     <row r="49">
@@ -1509,16 +1509,16 @@
         <v>5500</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0004076957702636719</v>
+        <v>0.0004098415374755859</v>
       </c>
       <c r="D49" t="n">
-        <v>1.311413764953613</v>
+        <v>1.30380392074585</v>
       </c>
       <c r="E49" t="n">
-        <v>1.959822177886963</v>
+        <v>1.949148893356323</v>
       </c>
       <c r="F49" t="n">
-        <v>2.673385858535767</v>
+        <v>4.049792051315308</v>
       </c>
     </row>
     <row r="50">
@@ -1531,16 +1531,16 @@
         <v>6000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0004441738128662109</v>
+        <v>0.0004720687866210938</v>
       </c>
       <c r="D50" t="n">
-        <v>1.559625148773193</v>
+        <v>2.094706058502197</v>
       </c>
       <c r="E50" t="n">
-        <v>2.328352212905884</v>
+        <v>3.431230783462524</v>
       </c>
       <c r="F50" t="n">
-        <v>3.169328927993774</v>
+        <v>3.679749727249146</v>
       </c>
     </row>
     <row r="51">
@@ -1553,16 +1553,16 @@
         <v>6500</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004811286926269531</v>
+        <v>0.0006330013275146484</v>
       </c>
       <c r="D51" t="n">
-        <v>1.834142923355103</v>
+        <v>2.542569398880005</v>
       </c>
       <c r="E51" t="n">
-        <v>2.747397184371948</v>
+        <v>3.029826164245605</v>
       </c>
       <c r="F51" t="n">
-        <v>3.731585025787354</v>
+        <v>3.831363916397095</v>
       </c>
     </row>
     <row r="52">
@@ -1575,16 +1575,16 @@
         <v>7000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000518798828125</v>
+        <v>0.0005190372467041016</v>
       </c>
       <c r="D52" t="n">
-        <v>2.128390073776245</v>
+        <v>2.138014078140259</v>
       </c>
       <c r="E52" t="n">
-        <v>3.177832126617432</v>
+        <v>3.298978090286255</v>
       </c>
       <c r="F52" t="n">
-        <v>4.336004734039307</v>
+        <v>4.428362846374512</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         <v>7500</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0005559921264648438</v>
+        <v>0.00055694580078125</v>
       </c>
       <c r="D53" t="n">
-        <v>2.432086944580078</v>
+        <v>2.463293790817261</v>
       </c>
       <c r="E53" t="n">
-        <v>3.638602018356323</v>
+        <v>3.630658626556396</v>
       </c>
       <c r="F53" t="n">
-        <v>4.973408699035645</v>
+        <v>5.254113912582397</v>
       </c>
     </row>
     <row r="54">
@@ -1619,16 +1619,16 @@
         <v>8000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0005939006805419922</v>
+        <v>0.0005970001220703125</v>
       </c>
       <c r="D54" t="n">
-        <v>2.768380165100098</v>
+        <v>2.875336170196533</v>
       </c>
       <c r="E54" t="n">
-        <v>4.153082132339478</v>
+        <v>4.953090190887451</v>
       </c>
       <c r="F54" t="n">
-        <v>5.666578054428101</v>
+        <v>5.657826900482178</v>
       </c>
     </row>
     <row r="55">
@@ -1641,16 +1641,16 @@
         <v>8500</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0006330013275146484</v>
+        <v>0.0006442070007324219</v>
       </c>
       <c r="D55" t="n">
-        <v>3.192135810852051</v>
+        <v>3.156804084777832</v>
       </c>
       <c r="E55" t="n">
-        <v>4.697869062423706</v>
+        <v>4.691070079803467</v>
       </c>
       <c r="F55" t="n">
-        <v>6.380657196044922</v>
+        <v>6.378461837768555</v>
       </c>
     </row>
     <row r="56">
@@ -1663,16 +1663,16 @@
         <v>9000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006690025329589844</v>
+        <v>0.0006670951843261719</v>
       </c>
       <c r="D56" t="n">
-        <v>3.518014907836914</v>
+        <v>3.530030250549316</v>
       </c>
       <c r="E56" t="n">
-        <v>5.273826122283936</v>
+        <v>5.275185823440552</v>
       </c>
       <c r="F56" t="n">
-        <v>7.155104160308838</v>
+        <v>7.149263858795166</v>
       </c>
     </row>
     <row r="57">
@@ -1685,16 +1685,16 @@
         <v>9500</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0007081031799316406</v>
+        <v>0.0007069110870361328</v>
       </c>
       <c r="D57" t="n">
-        <v>3.940370321273804</v>
+        <v>3.939601898193359</v>
       </c>
       <c r="E57" t="n">
-        <v>5.866188049316406</v>
+        <v>5.85679817199707</v>
       </c>
       <c r="F57" t="n">
-        <v>7.978800058364868</v>
+        <v>7.971684694290161</v>
       </c>
     </row>
     <row r="58">
@@ -1707,16 +1707,16 @@
         <v>10000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0007500648498535156</v>
+        <v>0.0007448196411132812</v>
       </c>
       <c r="D58" t="n">
-        <v>4.393776893615723</v>
+        <v>4.377082824707031</v>
       </c>
       <c r="E58" t="n">
-        <v>6.508473873138428</v>
+        <v>6.521476745605469</v>
       </c>
       <c r="F58" t="n">
-        <v>8.937330007553101</v>
+        <v>9.199421167373657</v>
       </c>
     </row>
     <row r="59">
@@ -1729,16 +1729,16 @@
         <v>1000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0001990795135498047</v>
+        <v>0.0002000331878662109</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0002608299255371094</v>
+        <v>0.0003561973571777344</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00020599365234375</v>
+        <v>0.0005362033843994141</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001966953277587891</v>
+        <v>0.0005407333374023438</v>
       </c>
     </row>
     <row r="60">
@@ -1751,16 +1751,16 @@
         <v>1500</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0003221035003662109</v>
+        <v>0.0003237724304199219</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0003728866577148438</v>
+        <v>0.0007350444793701172</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0003290176391601562</v>
+        <v>0.00038909912109375</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0003173351287841797</v>
+        <v>0.00030517578125</v>
       </c>
     </row>
     <row r="61">
@@ -1773,16 +1773,16 @@
         <v>2000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0004138946533203125</v>
+        <v>0.0005769729614257812</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0004930496215820312</v>
+        <v>0.0005753040313720703</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0004961490631103516</v>
+        <v>0.000682830810546875</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0004260540008544922</v>
+        <v>0.0006210803985595703</v>
       </c>
     </row>
     <row r="62">
@@ -1795,16 +1795,16 @@
         <v>2500</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000514984130859375</v>
+        <v>0.0007700920104980469</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0007071495056152344</v>
+        <v>0.0007722377777099609</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0006527900695800781</v>
+        <v>0.0006389617919921875</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0005140304565429688</v>
+        <v>0.0007448196411132812</v>
       </c>
     </row>
     <row r="63">
@@ -1817,16 +1817,16 @@
         <v>3000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0006260871887207031</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0008618831634521484</v>
+        <v>0.0008690357208251953</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0008261203765869141</v>
+        <v>0.0006849765777587891</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0006201267242431641</v>
+        <v>0.0006351470947265625</v>
       </c>
     </row>
     <row r="64">
@@ -1839,16 +1839,16 @@
         <v>3500</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0007407665252685547</v>
+        <v>0.001096963882446289</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0007889270782470703</v>
+        <v>0.0008378028869628906</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0007991790771484375</v>
+        <v>0.0008959770202636719</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0006909370422363281</v>
+        <v>0.000904083251953125</v>
       </c>
     </row>
     <row r="65">
@@ -1861,16 +1861,16 @@
         <v>4000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000804901123046875</v>
+        <v>0.0008089542388916016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0008680820465087891</v>
+        <v>0.002229928970336914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0008499622344970703</v>
+        <v>0.001056194305419922</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0008511543273925781</v>
+        <v>0.001219987869262695</v>
       </c>
     </row>
     <row r="66">
@@ -1883,16 +1883,16 @@
         <v>4500</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0009620189666748047</v>
+        <v>0.001125812530517578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0009598731994628906</v>
+        <v>0.001144170761108398</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0009720325469970703</v>
+        <v>0.001387119293212891</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0009169578552246094</v>
+        <v>0.001245021820068359</v>
       </c>
     </row>
     <row r="67">
@@ -1905,16 +1905,16 @@
         <v>5000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001106977462768555</v>
+        <v>0.001182794570922852</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002241849899291992</v>
+        <v>0.001493930816650391</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00156712532043457</v>
+        <v>0.001523017883300781</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001331090927124023</v>
+        <v>0.0009920597076416016</v>
       </c>
     </row>
     <row r="68">
@@ -1927,16 +1927,16 @@
         <v>5500</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001966238021850586</v>
+        <v>0.001203060150146484</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002067089080810547</v>
+        <v>0.002181291580200195</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001596927642822266</v>
+        <v>0.001336097717285156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001444101333618164</v>
+        <v>0.001833200454711914</v>
       </c>
     </row>
     <row r="69">
@@ -1949,16 +1949,16 @@
         <v>6000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001308917999267578</v>
+        <v>0.001317024230957031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001688003540039062</v>
+        <v>0.001479864120483398</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001482009887695312</v>
+        <v>0.001281023025512695</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001348018646240234</v>
+        <v>0.001264095306396484</v>
       </c>
     </row>
     <row r="70">
@@ -1971,16 +1971,16 @@
         <v>6500</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001373052597045898</v>
+        <v>0.001401185989379883</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001779079437255859</v>
+        <v>0.001369953155517578</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001787900924682617</v>
+        <v>0.001548051834106445</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001356840133666992</v>
+        <v>0.001397132873535156</v>
       </c>
     </row>
     <row r="71">
@@ -1993,16 +1993,16 @@
         <v>7000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001497745513916016</v>
+        <v>0.001460075378417969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001812934875488281</v>
+        <v>0.001602888107299805</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001578092575073242</v>
+        <v>0.001521110534667969</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001466035842895508</v>
+        <v>0.001397848129272461</v>
       </c>
     </row>
     <row r="72">
@@ -2015,16 +2015,16 @@
         <v>7500</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001692295074462891</v>
+        <v>0.001510858535766602</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001657009124755859</v>
+        <v>0.002064228057861328</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001869678497314453</v>
+        <v>0.00187993049621582</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001556873321533203</v>
+        <v>0.001527070999145508</v>
       </c>
     </row>
     <row r="73">
@@ -2037,16 +2037,16 @@
         <v>8000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001662969589233398</v>
+        <v>0.001595020294189453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001783132553100586</v>
+        <v>0.001838922500610352</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002127885818481445</v>
+        <v>0.001691818237304688</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001629114151000977</v>
+        <v>0.001604080200195312</v>
       </c>
     </row>
     <row r="74">
@@ -2059,16 +2059,16 @@
         <v>8500</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001779317855834961</v>
+        <v>0.001708984375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002223968505859375</v>
+        <v>0.002092123031616211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.002060890197753906</v>
+        <v>0.002082109451293945</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001699686050415039</v>
+        <v>0.00168609619140625</v>
       </c>
     </row>
     <row r="75">
@@ -2081,16 +2081,16 @@
         <v>9000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001878023147583008</v>
+        <v>0.001810312271118164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002539157867431641</v>
+        <v>0.002480745315551758</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002259969711303711</v>
+        <v>0.002350807189941406</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001827001571655273</v>
+        <v>0.001838922500610352</v>
       </c>
     </row>
     <row r="76">
@@ -2103,16 +2103,16 @@
         <v>9500</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00195002555847168</v>
+        <v>0.001935720443725586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002544879913330078</v>
+        <v>0.002534151077270508</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002084016799926758</v>
+        <v>0.002008914947509766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00201106071472168</v>
+        <v>0.002051115036010742</v>
       </c>
     </row>
     <row r="77">
@@ -2125,16 +2125,16 @@
         <v>10000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002374172210693359</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002400875091552734</v>
+        <v>0.002243757247924805</v>
       </c>
       <c r="E77" t="n">
-        <v>0.002486944198608398</v>
+        <v>0.002561092376708984</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002110004425048828</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="78">
@@ -2147,16 +2147,16 @@
         <v>1000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0009098052978515625</v>
+        <v>0.001173019409179688</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001755237579345703</v>
+        <v>0.002935171127319336</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002140998840332031</v>
+        <v>0.002803802490234375</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001573801040649414</v>
+        <v>0.002897024154663086</v>
       </c>
     </row>
     <row r="79">
@@ -2169,16 +2169,16 @@
         <v>1500</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001616954803466797</v>
+        <v>0.002182960510253906</v>
       </c>
       <c r="D79" t="n">
-        <v>0.003010749816894531</v>
+        <v>0.003840923309326172</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003494977951049805</v>
+        <v>0.006099224090576172</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002558231353759766</v>
+        <v>0.003916025161743164</v>
       </c>
     </row>
     <row r="80">
@@ -2191,16 +2191,16 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.002070188522338867</v>
+        <v>0.003345727920532227</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004446983337402344</v>
+        <v>0.007100820541381836</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005208253860473633</v>
+        <v>0.00715327262878418</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003481149673461914</v>
+        <v>0.004129171371459961</v>
       </c>
     </row>
     <row r="81">
@@ -2213,16 +2213,16 @@
         <v>2500</v>
       </c>
       <c r="C81" t="n">
-        <v>0.002901077270507812</v>
+        <v>0.003537893295288086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005600929260253906</v>
+        <v>0.007165908813476562</v>
       </c>
       <c r="E81" t="n">
-        <v>0.006905794143676758</v>
+        <v>0.008488893508911133</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004785299301147461</v>
+        <v>0.005936861038208008</v>
       </c>
     </row>
     <row r="82">
@@ -2235,16 +2235,16 @@
         <v>3000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.003576993942260742</v>
+        <v>0.004544973373413086</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007130146026611328</v>
+        <v>0.00958704948425293</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00841975212097168</v>
+        <v>0.01089715957641602</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005679845809936523</v>
+        <v>0.007705211639404297</v>
       </c>
     </row>
     <row r="83">
@@ -2257,16 +2257,16 @@
         <v>3500</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004076957702636719</v>
+        <v>0.0052490234375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008236169815063477</v>
+        <v>0.01099324226379395</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009668827056884766</v>
+        <v>0.01254606246948242</v>
       </c>
       <c r="F83" t="n">
-        <v>0.006489276885986328</v>
+        <v>0.008519172668457031</v>
       </c>
     </row>
     <row r="84">
@@ -2279,16 +2279,16 @@
         <v>4000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004613876342773438</v>
+        <v>0.006029129028320312</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01005792617797852</v>
+        <v>0.01329493522644043</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01168465614318848</v>
+        <v>0.01551914215087891</v>
       </c>
       <c r="F84" t="n">
-        <v>0.007773876190185547</v>
+        <v>0.01021504402160645</v>
       </c>
     </row>
     <row r="85">
@@ -2301,16 +2301,16 @@
         <v>4500</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0057220458984375</v>
+        <v>0.007562160491943359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01183795928955078</v>
+        <v>0.01557302474975586</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01372814178466797</v>
+        <v>0.01947116851806641</v>
       </c>
       <c r="F85" t="n">
-        <v>0.009366035461425781</v>
+        <v>0.01398706436157227</v>
       </c>
     </row>
     <row r="86">
@@ -2323,16 +2323,16 @@
         <v>5000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.006457090377807617</v>
+        <v>0.009066104888916016</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01359891891479492</v>
+        <v>0.02149295806884766</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01579689979553223</v>
+        <v>0.02448582649230957</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01059699058532715</v>
+        <v>0.01399397850036621</v>
       </c>
     </row>
     <row r="87">
@@ -2345,16 +2345,16 @@
         <v>5500</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00703883171081543</v>
+        <v>0.009536027908325195</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01508188247680664</v>
+        <v>0.01934432983398438</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01701092720031738</v>
+        <v>0.02087616920471191</v>
       </c>
       <c r="F87" t="n">
-        <v>0.011444091796875</v>
+        <v>0.01294088363647461</v>
       </c>
     </row>
     <row r="88">
@@ -2367,16 +2367,16 @@
         <v>6000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.007699966430664062</v>
+        <v>0.0092926025390625</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01655387878417969</v>
+        <v>0.01975488662719727</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01940703392028809</v>
+        <v>0.02384305000305176</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01230573654174805</v>
+        <v>0.01445293426513672</v>
       </c>
     </row>
     <row r="89">
@@ -2389,16 +2389,16 @@
         <v>6500</v>
       </c>
       <c r="C89" t="n">
-        <v>0.008267879486083984</v>
+        <v>0.009636878967285156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01846599578857422</v>
+        <v>0.02205681800842285</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02218198776245117</v>
+        <v>0.02426314353942871</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01424908638000488</v>
+        <v>0.0159142017364502</v>
       </c>
     </row>
     <row r="90">
@@ -2411,16 +2411,16 @@
         <v>7000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.009042978286743164</v>
+        <v>0.01003479957580566</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01992583274841309</v>
+        <v>0.02113986015319824</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02335906028747559</v>
+        <v>0.02358770370483398</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01453900337219238</v>
+        <v>0.01456594467163086</v>
       </c>
     </row>
     <row r="91">
@@ -2433,16 +2433,16 @@
         <v>7500</v>
       </c>
       <c r="C91" t="n">
-        <v>0.009630918502807617</v>
+        <v>0.01008415222167969</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02090311050415039</v>
+        <v>0.02182602882385254</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02458691596984863</v>
+        <v>0.02620315551757812</v>
       </c>
       <c r="F91" t="n">
-        <v>0.01558589935302734</v>
+        <v>0.01580405235290527</v>
       </c>
     </row>
     <row r="92">
@@ -2455,16 +2455,16 @@
         <v>8000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01017975807189941</v>
+        <v>0.01028609275817871</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02344703674316406</v>
+        <v>0.02337884902954102</v>
       </c>
       <c r="E92" t="n">
-        <v>0.02914619445800781</v>
+        <v>0.02809500694274902</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01735782623291016</v>
+        <v>0.01706504821777344</v>
       </c>
     </row>
     <row r="93">
@@ -2477,16 +2477,16 @@
         <v>8500</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01206302642822266</v>
+        <v>0.01180386543273926</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02645301818847656</v>
+        <v>0.02611088752746582</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03033328056335449</v>
+        <v>0.0310821533203125</v>
       </c>
       <c r="F93" t="n">
-        <v>0.01938295364379883</v>
+        <v>0.01961398124694824</v>
       </c>
     </row>
     <row r="94">
@@ -2499,16 +2499,16 @@
         <v>9000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01253509521484375</v>
+        <v>0.01285886764526367</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02781081199645996</v>
+        <v>0.02805709838867188</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03200411796569824</v>
+        <v>0.03275203704833984</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02088093757629395</v>
+        <v>0.02037906646728516</v>
       </c>
     </row>
     <row r="95">
@@ -2521,16 +2521,16 @@
         <v>9500</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01360201835632324</v>
+        <v>0.01315665245056152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03122186660766602</v>
+        <v>0.02883696556091309</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03472781181335449</v>
+        <v>0.03413510322570801</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02070808410644531</v>
+        <v>0.02086114883422852</v>
       </c>
     </row>
     <row r="96">
@@ -2543,852 +2543,1688 @@
         <v>10000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01385974884033203</v>
+        <v>0.01438307762145996</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03126311302185059</v>
+        <v>0.03138399124145508</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03948283195495605</v>
+        <v>0.03863024711608887</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02292013168334961</v>
+        <v>0.02351093292236328</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001263141632080078</v>
+        <v>0.0009150505065917969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001456737518310547</v>
+        <v>0.001711130142211914</v>
       </c>
       <c r="E97" t="n">
-        <v>0.001893997192382812</v>
+        <v>0.002031087875366211</v>
       </c>
       <c r="F97" t="n">
-        <v>0.001218080520629883</v>
+        <v>0.001363277435302734</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1500</v>
       </c>
       <c r="C98" t="n">
-        <v>0.002116203308105469</v>
+        <v>0.00153803825378418</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002238750457763672</v>
+        <v>0.003153800964355469</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002930879592895508</v>
+        <v>0.003393650054931641</v>
       </c>
       <c r="F98" t="n">
-        <v>0.002110004425048828</v>
+        <v>0.002226829528808594</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.002544164657592773</v>
+        <v>0.002052068710327148</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002999067306518555</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004415988922119141</v>
+        <v>0.004881143569946289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.002632856369018555</v>
+        <v>0.003066062927246094</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2500</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003587722778320312</v>
+        <v>0.00269007682800293</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003882884979248047</v>
+        <v>0.005499124526977539</v>
       </c>
       <c r="E100" t="n">
-        <v>0.005037784576416016</v>
+        <v>0.006460905075073242</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003650903701782227</v>
+        <v>0.003747940063476562</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>3000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.004628896713256836</v>
+        <v>0.003342628479003906</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00488591194152832</v>
+        <v>0.00692296028137207</v>
       </c>
       <c r="E101" t="n">
-        <v>0.006135225296020508</v>
+        <v>0.008034944534301758</v>
       </c>
       <c r="F101" t="n">
-        <v>0.004642963409423828</v>
+        <v>0.00489497184753418</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>3500</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005357980728149414</v>
+        <v>0.003957986831665039</v>
       </c>
       <c r="D102" t="n">
-        <v>0.006045818328857422</v>
+        <v>0.008168935775756836</v>
       </c>
       <c r="E102" t="n">
-        <v>0.007251977920532227</v>
+        <v>0.009263038635253906</v>
       </c>
       <c r="F102" t="n">
-        <v>0.005208015441894531</v>
+        <v>0.005522966384887695</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>4000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005549907684326172</v>
+        <v>0.004569292068481445</v>
       </c>
       <c r="D103" t="n">
-        <v>0.00683903694152832</v>
+        <v>0.009579181671142578</v>
       </c>
       <c r="E103" t="n">
-        <v>0.008678197860717773</v>
+        <v>0.01162385940551758</v>
       </c>
       <c r="F103" t="n">
-        <v>0.005763053894042969</v>
+        <v>0.006675004959106445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>4500</v>
       </c>
       <c r="C104" t="n">
-        <v>0.006861209869384766</v>
+        <v>0.005268096923828125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.007484912872314453</v>
+        <v>0.01160812377929688</v>
       </c>
       <c r="E104" t="n">
-        <v>0.009456157684326172</v>
+        <v>0.01266026496887207</v>
       </c>
       <c r="F104" t="n">
-        <v>0.006547927856445312</v>
+        <v>0.00728297233581543</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>5000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.007508993148803711</v>
+        <v>0.005997896194458008</v>
       </c>
       <c r="D105" t="n">
-        <v>0.008321046829223633</v>
+        <v>0.01325488090515137</v>
       </c>
       <c r="E105" t="n">
-        <v>0.01039004325866699</v>
+        <v>0.01472806930541992</v>
       </c>
       <c r="F105" t="n">
-        <v>0.007417917251586914</v>
+        <v>0.008365154266357422</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>5500</v>
       </c>
       <c r="C106" t="n">
-        <v>0.008402824401855469</v>
+        <v>0.006784915924072266</v>
       </c>
       <c r="D106" t="n">
-        <v>0.008947134017944336</v>
+        <v>0.0148930549621582</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01163792610168457</v>
+        <v>0.01653814315795898</v>
       </c>
       <c r="F106" t="n">
-        <v>0.008450984954833984</v>
+        <v>0.009958267211914062</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>6000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.009614944458007812</v>
+        <v>0.007571935653686523</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01024794578552246</v>
+        <v>0.01624298095703125</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01308798789978027</v>
+        <v>0.01859021186828613</v>
       </c>
       <c r="F107" t="n">
-        <v>0.009710788726806641</v>
+        <v>0.01034116744995117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>6500</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01031184196472168</v>
+        <v>0.008026123046875</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01121401786804199</v>
+        <v>0.01726794242858887</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01389312744140625</v>
+        <v>0.02033591270446777</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0103001594543457</v>
+        <v>0.01091980934143066</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>7000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01064395904541016</v>
+        <v>0.00876307487487793</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01186990737915039</v>
+        <v>0.01997709274291992</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01502394676208496</v>
+        <v>0.02341127395629883</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01059103012084961</v>
+        <v>0.01216697692871094</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>7500</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01105284690856934</v>
+        <v>0.009479045867919922</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01272010803222656</v>
+        <v>0.02097678184509277</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01568007469177246</v>
+        <v>0.02408027648925781</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01108098030090332</v>
+        <v>0.0130620002746582</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>8000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01174092292785645</v>
+        <v>0.01005387306213379</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01388001441955566</v>
+        <v>0.02259302139282227</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01759886741638184</v>
+        <v>0.02689838409423828</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01172804832458496</v>
+        <v>0.01490497589111328</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>8500</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01286816596984863</v>
+        <v>0.01088500022888184</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0147552490234375</v>
+        <v>0.02450776100158691</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01874685287475586</v>
+        <v>0.02970695495605469</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01253485679626465</v>
+        <v>0.01522207260131836</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>9000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01347780227661133</v>
+        <v>0.0117180347442627</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0156400203704834</v>
+        <v>0.02662229537963867</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0198359489440918</v>
+        <v>0.03010010719299316</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01367497444152832</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>9500</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01465201377868652</v>
+        <v>0.01232504844665527</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0167391300201416</v>
+        <v>0.02841806411743164</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02263593673706055</v>
+        <v>0.0319371223449707</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01502323150634766</v>
+        <v>0.0170598030090332</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Быстрая сортировка</t>
+          <t>Сортировка Шелла (последовательность Хиббарда)</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>10000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01585912704467773</v>
+        <v>0.01332283020019531</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01775312423706055</v>
+        <v>0.02949190139770508</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02243494987487793</v>
+        <v>0.03360795974731445</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01563000679016113</v>
+        <v>0.01834893226623535</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.0006279945373535156</v>
       </c>
       <c r="D116" t="n">
-        <v>0.003946781158447266</v>
+        <v>0.001574993133544922</v>
       </c>
       <c r="E116" t="n">
-        <v>0.003773927688598633</v>
+        <v>0.001962184906005859</v>
       </c>
       <c r="F116" t="n">
-        <v>0.003344058990478516</v>
+        <v>0.001144170761108398</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1500</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00622105598449707</v>
+        <v>0.001019001007080078</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006335973739624023</v>
+        <v>0.002683162689208984</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005846023559570312</v>
+        <v>0.003333330154418945</v>
       </c>
       <c r="F117" t="n">
-        <v>0.005405902862548828</v>
+        <v>0.001988887786865234</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>2000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0085601806640625</v>
+        <v>0.00141596794128418</v>
       </c>
       <c r="D118" t="n">
-        <v>0.008500099182128906</v>
+        <v>0.003631830215454102</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0080718994140625</v>
+        <v>0.004581928253173828</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00749516487121582</v>
+        <v>0.002505779266357422</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>2500</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01113295555114746</v>
+        <v>0.00185704231262207</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0109870433807373</v>
+        <v>0.004986047744750977</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01048088073730469</v>
+        <v>0.006341218948364258</v>
       </c>
       <c r="F119" t="n">
-        <v>0.009769916534423828</v>
+        <v>0.003244876861572266</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>3000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0136868953704834</v>
+        <v>0.002232074737548828</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01352906227111816</v>
+        <v>0.006107807159423828</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01301407814025879</v>
+        <v>0.007552146911621094</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01200413703918457</v>
+        <v>0.004106998443603516</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>3500</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01644587516784668</v>
+        <v>0.002691268920898438</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01623106002807617</v>
+        <v>0.007384061813354492</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0156242847442627</v>
+        <v>0.009328126907348633</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01475691795349121</v>
+        <v>0.004822731018066406</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>4000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01932716369628906</v>
+        <v>0.003177404403686523</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01901698112487793</v>
+        <v>0.009460926055908203</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01858615875244141</v>
+        <v>0.01050591468811035</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01709485054016113</v>
+        <v>0.005842924118041992</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>4500</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02184700965881348</v>
+        <v>0.003597021102905273</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02145695686340332</v>
+        <v>0.01003289222717285</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02050614356994629</v>
+        <v>0.01189994812011719</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01912283897399902</v>
+        <v>0.006913900375366211</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>5000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02486395835876465</v>
+        <v>0.004060745239257812</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02491307258605957</v>
+        <v>0.01212334632873535</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02375602722167969</v>
+        <v>0.01424288749694824</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02202296257019043</v>
+        <v>0.006781816482543945</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>5500</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02837610244750977</v>
+        <v>0.004607200622558594</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02757096290588379</v>
+        <v>0.0133969783782959</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02588415145874023</v>
+        <v>0.01550912857055664</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02424907684326172</v>
+        <v>0.008435964584350586</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>6000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.03099274635314941</v>
+        <v>0.005211114883422852</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03109192848205566</v>
+        <v>0.0147857666015625</v>
       </c>
       <c r="E126" t="n">
-        <v>0.02958106994628906</v>
+        <v>0.0187993049621582</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02740120887756348</v>
+        <v>0.008935213088989258</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>6500</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03376388549804688</v>
+        <v>0.005480766296386719</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03307271003723145</v>
+        <v>0.01530098915100098</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03140902519226074</v>
+        <v>0.0198509693145752</v>
       </c>
       <c r="F127" t="n">
-        <v>0.02969813346862793</v>
+        <v>0.01012706756591797</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>7000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.03756308555603027</v>
+        <v>0.005910873413085938</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03630399703979492</v>
+        <v>0.01706099510192871</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03427410125732422</v>
+        <v>0.02260184288024902</v>
       </c>
       <c r="F128" t="n">
-        <v>0.03212809562683105</v>
+        <v>0.01040101051330566</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>7500</v>
       </c>
       <c r="C129" t="n">
-        <v>0.03958797454833984</v>
+        <v>0.006536006927490234</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03955817222595215</v>
+        <v>0.01940512657165527</v>
       </c>
       <c r="E129" t="n">
-        <v>0.03763794898986816</v>
+        <v>0.02361679077148438</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03485894203186035</v>
+        <v>0.01138401031494141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>8000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04262566566467285</v>
+        <v>0.006985902786254883</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04185605049133301</v>
+        <v>0.02050900459289551</v>
       </c>
       <c r="E130" t="n">
-        <v>0.03974199295043945</v>
+        <v>0.02504420280456543</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03817200660705566</v>
+        <v>0.01248788833618164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>8500</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04607510566711426</v>
+        <v>0.007308006286621094</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04516506195068359</v>
+        <v>0.02235698699951172</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04281497001647949</v>
+        <v>0.02725672721862793</v>
       </c>
       <c r="F131" t="n">
-        <v>0.04043698310852051</v>
+        <v>0.01440811157226562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>9000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04965877532958984</v>
+        <v>0.007929086685180664</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04815793037414551</v>
+        <v>0.02440977096557617</v>
       </c>
       <c r="E132" t="n">
-        <v>0.04575586318969727</v>
+        <v>0.02973699569702148</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04305386543273926</v>
+        <v>0.01451802253723145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>9500</v>
       </c>
       <c r="C133" t="n">
-        <v>0.05348777770996094</v>
+        <v>0.008254051208496094</v>
       </c>
       <c r="D133" t="n">
-        <v>0.05311393737792969</v>
+        <v>0.02571535110473633</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05530691146850586</v>
+        <v>0.03173184394836426</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05090212821960449</v>
+        <v>0.01564335823059082</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Пирамидальная сортировка</t>
+          <t>Сортировка Шелла (последовательность Пратта)</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>10000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.05557703971862793</v>
+        <v>0.00875401496887207</v>
       </c>
       <c r="D134" t="n">
-        <v>0.05869698524475098</v>
+        <v>0.02706599235534668</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05182290077209473</v>
+        <v>0.03529787063598633</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04873514175415039</v>
+        <v>0.01686811447143555</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.001260995864868164</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.001464128494262695</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.001891136169433594</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.001214027404785156</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.002130031585693359</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.002249956130981445</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.002768993377685547</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.002112865447998047</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.002538919448852539</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.003085851669311523</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.004160881042480469</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.002905130386352539</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.003565073013305664</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.00402522087097168</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.005016088485717773</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.003471136093139648</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.004515171051025391</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.004664897918701172</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.006189107894897461</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.004462003707885742</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.004987239837646484</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.005950212478637695</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.006830215454101562</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.005019903182983398</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.005423069000244141</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.006453275680541992</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.007967233657836914</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.005413293838500977</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.006431102752685547</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.007337093353271484</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.009350776672363281</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.006386756896972656</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.007436037063598633</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.008224010467529297</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.01067399978637695</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.007390022277832031</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.008500099182128906</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.009099960327148438</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.01210188865661621</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.008616209030151367</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.009679794311523438</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0102231502532959</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.01302909851074219</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.009886026382446289</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.01035499572753906</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.01160907745361328</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0137779712677002</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01005816459655762</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0105431079864502</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.01172423362731934</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.01456618309020996</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01050901412963867</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.01105999946594238</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.01265406608581543</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.01703810691833496</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.01119399070739746</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.01166009902954102</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.01372909545898438</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.01761007308959961</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.01165413856506348</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>8500</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.01255989074707031</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.01450490951538086</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.01891517639160156</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0122530460357666</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.01341700553894043</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0156550407409668</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.01984405517578125</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.01333475112915039</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.01489520072937012</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.01754283905029297</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.02152204513549805</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.01489377021789551</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Быстрая сортировка</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.01569986343383789</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.01715302467346191</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.02230286598205566</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.01542901992797852</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.003587961196899414</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.003650903701782227</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.003424882888793945</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.003097057342529297</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.005772113800048828</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0057220458984375</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.005463123321533203</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.005042791366577148</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.008429765701293945</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.008053064346313477</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.007702112197875977</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.007117033004760742</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.01035904884338379</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0102999210357666</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.009812831878662109</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.009076833724975586</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.01278591156005859</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0126640796661377</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.01200485229492188</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.01119899749755859</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.01518011093139648</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.01505827903747559</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.01448917388916016</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.01365900039672852</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.01779603958129883</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0177772045135498</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.01685118675231934</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.01602411270141602</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.02059793472290039</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.02020716667175293</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.01927685737609863</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.01788210868835449</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0231020450592041</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.02291274070739746</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.02192807197570801</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.02075600624084473</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.02644729614257812</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.02585887908935547</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.02429699897766113</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.02271080017089844</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.02943110466003418</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.02839207649230957</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.02741289138793945</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0255739688873291</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.03176498413085938</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.03086400032043457</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.02940702438354492</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0277099609375</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.03466796875</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.03471875190734863</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.03296303749084473</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.02997517585754395</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.03704714775085449</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.03632211685180664</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.03468203544616699</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.03355693817138672</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.04046010971069336</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0392920970916748</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.03719496726989746</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.03501391410827637</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>8500</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.04305815696716309</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.04256820678710938</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.03996109962463379</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.03753113746643066</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.04543805122375488</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.04522800445556641</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.04349279403686523</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.04016566276550293</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.04862880706787109</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.04794001579284668</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.04604530334472656</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.04362773895263672</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Пирамидальная сортировка</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.05134797096252441</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.05078506469726562</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.04821085929870605</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.04597973823547363</v>
       </c>
     </row>
   </sheetData>
